--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,15 +106,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消息类型（未明消息源采访、一般新闻源、政府政策公告、重量级任务讲话、新闻稿等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>政府政策公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李克强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本报预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型（未明消息源采访、一般新闻源、政府政策公告、重量级任务讲话、新闻稿等、本报预测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第七批IPO批文最快有望本周下发 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">习近平：加快实施自由贸易区战略 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导人报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院国资委25项措施指导地方国企改革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发改委发布1043个PPP项目 涉投资1.97万亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国资委</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -491,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -634,7 +666,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -646,10 +678,75 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>41991</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>41991</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>42150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>42150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -659,9 +756,11 @@
     <hyperlink ref="F4" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
     <hyperlink ref="F5" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
     <hyperlink ref="F7" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="F10" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="F11" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,26 @@
   </si>
   <si>
     <t>国资委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖钢：建设公正透明严谨高效的证监会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本报分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减持潮汹涌 两市一日现20余份减持公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -505,7 +525,7 @@
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="32.25" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
     <col min="8" max="9" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,6 +754,9 @@
       <c r="H11" t="s">
         <v>32</v>
       </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
@@ -747,6 +770,46 @@
       </c>
       <c r="H12" t="s">
         <v>18</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>42151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>-0.25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>42151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>-0.25</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -758,9 +821,10 @@
     <hyperlink ref="F7" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
     <hyperlink ref="F10" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
     <hyperlink ref="F11" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="F13" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -563,19 +563,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>42149</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>42151</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -583,19 +583,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>42149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>42151</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>-0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -603,22 +600,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>42149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>42150</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -626,30 +617,33 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>42146</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>42150</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>42146</v>
+        <v>42149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -660,136 +654,139 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>42145</v>
+        <v>42149</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
+        <v>-0.2</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>42145</v>
+        <v>42149</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>41991</v>
+        <v>42146</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>41991</v>
+        <v>42146</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
+        <v>0.1</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>42150</v>
+        <v>42145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>42150</v>
+        <v>42145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>42151</v>
+        <v>41991</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G13">
-        <v>-0.25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -797,31 +794,37 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>42151</v>
+        <v>41991</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G14">
-        <v>-0.25</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J14">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="F4" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="F5" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="F7" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="F10" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="F11" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="F13" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="F7" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="F8" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="F9" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="F11" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="F14" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="F4" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="F2" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,126 @@
   </si>
   <si>
     <t>减持潮汹涌 两市一日现20余份减持公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院：加大金融支持企业“走出去”力度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院常务会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40家券商两融业务接受检查 均提高保证金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻澄清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发改委1.6万亿元布局“铁公机”明年经济将重振活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓励银行放贷 同业存款纳入存贷比</t>
+  </si>
+  <si>
+    <t>过往消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息传闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄心一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄心一：法治是资本市场善治根基，提到注册制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行明确同业存款纳入存款统计口径（效果等同降准）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛市看定增，定增相关新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　中央深改组定调2015：改革关键之年</t>
+  </si>
+  <si>
+    <t>中央全面深化改革领导小组</t>
+  </si>
+  <si>
+    <t>　全国财政工作会议提出适当加大积极财政政策力度</t>
+  </si>
+  <si>
+    <t>财政部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼继伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票期权准备就绪 启动箭在弦上</t>
+  </si>
+  <si>
+    <t>上交所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一季度降息预期升温 经济新常态平台加速形成</t>
+  </si>
+  <si>
+    <t>20家企业获IPO批文</t>
+  </si>
+  <si>
+    <t>2015年IPO放行加速 春节前50家企业有望上发审会</t>
+  </si>
+  <si>
+    <t>　李克强考察广东 再提中国装备“走出去”</t>
+  </si>
+  <si>
+    <t>国企改革提速 续演A股投资主角</t>
+  </si>
+  <si>
+    <t>“一带一路”暖风频吹 “中”字头盛宴未散场</t>
+  </si>
+  <si>
+    <t>　险资今年或给股市带来逾2700亿元增量资金</t>
+  </si>
+  <si>
+    <t>券商应加强两融风险管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张育军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -777,39 +897,363 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>42151</v>
+        <v>42150</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G13">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>42151</v>
       </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>-0.25</v>
       </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
       <c r="J14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>42151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>-0.25</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>41998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>41998</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>41999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>41999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>42002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>-0.5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>42002</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>42003</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>42004</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>42004</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>42009</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <v>-0.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>42009</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>42010</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42009</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27">
+        <v>-0.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>42011</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>42011</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>42011</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>42011</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>42012</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +1265,7 @@
     <hyperlink ref="F7" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
     <hyperlink ref="F10" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
     <hyperlink ref="F11" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="F13" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="F14" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId8"/>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
+    <sheet name="华尔街见闻" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -377,12 +376,163 @@
     <t>略微利空</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>多家券商再降两融杠杆</t>
+  </si>
+  <si>
+    <t>滞后消息</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>　两融将触天花板 余下额度只可用2.5个月</t>
+  </si>
+  <si>
+    <t>仅按建议计算，无多大效力</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>中韩自由贸易协定正式签署</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期利好，当前作用不大</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中国制造2025》</t>
+  </si>
+  <si>
+    <t>日前</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院印发，三家刊登，算比较大的利好消息</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院日前批转发展改革委《关于2015年深化经济体制改革重点工作的意见》</t>
+  </si>
+  <si>
+    <t>李克强</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院签发，三家刊登，比较大利好</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院印发《关于推进国际产能和装备制造合作的指导意见》</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院签发，两家刊登，较大利好</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>银监会：推进银行业金融机构混合所有制改革</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>银监会</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>非重要消息</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政部20日续发300亿7年国债</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>财政部</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>续发而非新发，略微利空</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>业界预测深港通有望三季度推出</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>传闻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥远三季度的传闻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日收盘后分析</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行似再次操作PSL 国开行续作可能性大</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于银行再度放水</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行首亮PSL操作细节</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>滞后消息</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行混改最终方案约一个月前已上报国务院，交行预计方案最快两周内获批</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期银行改革将会是个热点，央行出于银行板块的考虑会给与股市消息面配合</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年06月02日 07:01:57</t>
+  </si>
+  <si>
+    <t>央妈再注水！低利率向国开行注入万亿PSL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>利好，增加流动性</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民银行发布了《中国金融稳定报告（2015）》</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年05月29日 21:35:52</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容中提高股市，利好，周一利好增加</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +702,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -978,7 +1145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,6 +1153,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1334,12 +1510,12 @@
     <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.25" customWidth="1"/>
     <col min="3" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="7" width="23.125" customWidth="1"/>
-    <col min="8" max="8" width="37.125" customWidth="1"/>
-    <col min="9" max="10" width="17.375" customWidth="1"/>
+    <col min="5" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="37.125" customWidth="1"/>
+    <col min="10" max="11" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,719 +1532,921 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>42156</v>
+        <v>42158</v>
       </c>
       <c r="B2">
-        <v>-0.25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>70</v>
-      </c>
       <c r="G4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
       <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>93</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>42152</v>
+        <v>42157</v>
       </c>
       <c r="B6">
-        <v>-0.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>42152</v>
+        <v>42156</v>
       </c>
       <c r="B7">
         <v>-0.25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>42153</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>42153</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>42152</v>
+      </c>
+      <c r="B11">
+        <v>-0.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>42152</v>
+      </c>
+      <c r="B12">
+        <v>-0.25</v>
+      </c>
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
         <v>42151</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>-0.25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G13" t="s">
         <v>86</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
         <v>42151</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>-0.25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H14" t="s">
         <v>88</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I14" t="s">
         <v>79</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="K9">
+      <c r="L14">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
         <v>42151</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>-0.25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H15" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I15" t="s">
         <v>80</v>
       </c>
-      <c r="K10">
+      <c r="L15">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
         <v>42150</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>0.5</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I16" t="s">
         <v>29</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="K11">
+      <c r="L16">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
         <v>42150</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>0.5</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I17" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J17" t="s">
         <v>17</v>
       </c>
-      <c r="K12">
+      <c r="L17">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
         <v>42150</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>-1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I18" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J18" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
         <v>42149</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>0.1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H19" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I19" t="s">
         <v>6</v>
       </c>
-      <c r="K14">
+      <c r="L19">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
         <v>42149</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>-0.2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I20" t="s">
         <v>8</v>
       </c>
-      <c r="K15">
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
         <v>42149</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I21" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K21" t="s">
         <v>12</v>
       </c>
-      <c r="K16">
+      <c r="L21">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
         <v>42146</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H22" t="s">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I22" t="s">
         <v>15</v>
       </c>
-      <c r="K17">
+      <c r="L22">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
         <v>42146</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>0.1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I23" t="s">
         <v>16</v>
       </c>
-      <c r="K18">
+      <c r="L23">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
         <v>42145</v>
-      </c>
-      <c r="B19">
-        <v>0.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
-        <v>42145</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1">
-        <v>42012</v>
-      </c>
-      <c r="B21">
-        <v>0.5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>42011</v>
-      </c>
-      <c r="B22">
-        <v>-0.5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
-        <v>42011</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
-        <v>42011</v>
       </c>
       <c r="B24">
         <v>0.5</v>
       </c>
-      <c r="H24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
+        <v>42145</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>42012</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
         <v>42011</v>
-      </c>
-      <c r="B25">
-        <v>0.5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1">
-        <v>42010</v>
-      </c>
-      <c r="B26">
-        <v>-0.5</v>
-      </c>
-      <c r="C26">
-        <v>42009</v>
-      </c>
-      <c r="H26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
-        <v>42009</v>
       </c>
       <c r="B27">
         <v>-0.5</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>42004</v>
+        <v>42011</v>
       </c>
       <c r="B29">
         <v>0.5</v>
       </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>42004</v>
+        <v>42011</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>53</v>
+        <v>0.5</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="K30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>-0.5</v>
+      </c>
+      <c r="C31">
+        <v>42009</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>42002</v>
+        <v>42009</v>
       </c>
       <c r="B32">
         <v>-0.5</v>
       </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>57</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>42002</v>
+        <v>42009</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>41999</v>
+        <v>42004</v>
       </c>
       <c r="B34">
         <v>0.5</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+      <c r="J35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>42003</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>42002</v>
+      </c>
+      <c r="B37">
+        <v>-0.5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>42002</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="H39" t="s">
         <v>42</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I39" t="s">
         <v>40</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J39" t="s">
         <v>17</v>
       </c>
-      <c r="K34">
+      <c r="L39">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1">
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
         <v>41999</v>
       </c>
-      <c r="B35">
+      <c r="B40">
         <v>0.5</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H40" t="s">
         <v>43</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I40" t="s">
         <v>41</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J40" t="s">
         <v>44</v>
       </c>
-      <c r="K35">
+      <c r="L40">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
         <v>41998</v>
       </c>
-      <c r="B36">
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H41" t="s">
         <v>36</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I41" t="s">
         <v>35</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J41" t="s">
         <v>20</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K41" t="s">
         <v>22</v>
       </c>
-      <c r="K36">
+      <c r="L41">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
         <v>41998</v>
       </c>
-      <c r="B37">
+      <c r="B42">
         <v>0.5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I42" t="s">
         <v>37</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J42" t="s">
         <v>32</v>
       </c>
-      <c r="K37">
+      <c r="L42">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
         <v>41991</v>
       </c>
-      <c r="B38">
+      <c r="B43">
         <v>-1</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H43" t="s">
         <v>23</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I43" t="s">
         <v>25</v>
       </c>
-      <c r="K38">
+      <c r="L43">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1">
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
         <v>41991</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H44" t="s">
         <v>28</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I44" t="s">
         <v>26</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K44" t="s">
         <v>27</v>
       </c>
-      <c r="K39">
+      <c r="L44">
         <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>42144</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>42143</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>42142</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>42139</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>42138</v>
+      </c>
+      <c r="B49">
+        <v>-0.05</v>
+      </c>
+      <c r="G49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>42137</v>
+      </c>
+      <c r="G50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" t="s">
+        <v>112</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2077,30 +2455,121 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H15" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="H16" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="H17" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="H19" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="H39" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="H11" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="H9" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="H5" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="H4" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="H3" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="I20" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="I21" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="I22" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="I24" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="I44" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="I16" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="I14" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="I10" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="I9" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="I8" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="I6" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="I48" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="I49" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="I50" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>42158</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
     <sheet name="华尔街见闻" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="前瞻和预估" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -527,11 +527,50 @@
     <t>央行</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件将会发生的时间点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件简介</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>msci将于2015.06.10 5点在网站公布是否将中国股市纳入</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人分析</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入将会是利好</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>理由来源</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国央行：自6月起将按月公布上月PSL操作情况</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加流动性，利好</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -1145,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1201,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2479,7 +2521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2578,13 +2620,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42165.208333333336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>42159</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -563,13 +563,60 @@
     <t>增加流动性，利好</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>下半年</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过注册制，先修改证券发行相关立法</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>有专家预计，在年底前推出，时间应该不会太早，因为会给股市带来震荡波动，非当前管理层所乐见</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会全面叫停场外配资端口接入</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场传闻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅为市场传闻，前期也有报出</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月1.46万亿资金涌入A股,从银证转账渠道净流入9235亿元，通过新发行公、私募基金流入2975.67亿元，通过“两融”渠道流入2396.82亿元</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场资金大量流入，一方面说明人气很旺，也说明散户疯狂后市场有点危险</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>　5月份投资者银证转账净流入9235亿</t>
+  </si>
+  <si>
+    <t>说明市场很是疯狂</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>　多家券商继续收紧两融业务</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资政策继续收紧，券商也怕大跌带来的风险</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1203,7 +1250,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1541,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1597,58 +1644,58 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1656,203 +1703,194 @@
         <v>42157</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="B7">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>42152</v>
+        <v>42156</v>
       </c>
       <c r="B11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="B12">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>42151</v>
+        <v>42153</v>
       </c>
       <c r="B13">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="B14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="B15">
         <v>-0.25</v>
       </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
       <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
+        <v>-0.25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1860,36 +1898,33 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B19">
-        <v>0.1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1897,19 +1932,16 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B20">
-        <v>-0.2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1917,56 +1949,56 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>-0.2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="H23" t="s">
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1974,98 +2006,119 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>42145</v>
+        <v>42149</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
       <c r="I24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>42012</v>
+        <v>42146</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>42011</v>
+        <v>42145</v>
       </c>
       <c r="B27">
-        <v>-0.5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>42011</v>
+        <v>42145</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="B29">
         <v>0.5</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2073,107 +2126,86 @@
         <v>42011</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>42010</v>
+        <v>42011</v>
       </c>
       <c r="B31">
-        <v>-0.5</v>
-      </c>
-      <c r="C31">
-        <v>42009</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="B32">
-        <v>-0.5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>42004</v>
+        <v>42010</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="C34">
+        <v>42009</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>-0.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
-      </c>
-      <c r="K35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -2181,145 +2213,136 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>42003</v>
+        <v>42009</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="B37">
-        <v>-0.5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
+        <v>0.5</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="J38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" t="s">
+        <v>55</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>41999</v>
+        <v>42003</v>
       </c>
       <c r="B39">
         <v>0.5</v>
       </c>
       <c r="H39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>41998</v>
+        <v>42002</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="B42">
         <v>0.5</v>
       </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2327,16 +2350,19 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>41991</v>
+        <v>41999</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>44</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -2344,19 +2370,22 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -2364,71 +2393,59 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>42144</v>
+        <v>41998</v>
       </c>
       <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45">
         <v>1</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G45" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>42143</v>
+        <v>41991</v>
       </c>
       <c r="B46">
+        <v>-1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46">
         <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J46" t="s">
-        <v>98</v>
-      </c>
-      <c r="K46" t="s">
-        <v>101</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>42142</v>
+        <v>41991</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>104</v>
-      </c>
-      <c r="J47" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -2436,58 +2453,130 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>42139</v>
+        <v>42144</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>42138</v>
+        <v>42143</v>
       </c>
       <c r="B49">
-        <v>-0.05</v>
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>103</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="K49" t="s">
+        <v>101</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
+        <v>42142</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" t="s">
+        <v>101</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>42139</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>42138</v>
+      </c>
+      <c r="B52">
+        <v>-0.05</v>
+      </c>
+      <c r="G52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" t="s">
+        <v>110</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
         <v>42137</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G53" t="s">
         <v>114</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H53" t="s">
         <v>113</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I53" t="s">
         <v>112</v>
       </c>
-      <c r="L50">
+      <c r="L53">
         <v>1</v>
       </c>
     </row>
@@ -2497,32 +2586,33 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I20" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="I21" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="I22" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="I24" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="I44" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="I16" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="I14" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="I10" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="I9" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="I8" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="I6" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="I48" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="I49" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="I50" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="I23" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="I24" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="I25" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="I27" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="I47" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="I19" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="I17" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="I13" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="I12" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="I11" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="I9" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="I51" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="I52" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="I53" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="I3" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2566,48 +2656,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11" s="5" customFormat="1">
+      <c r="A2" s="4">
+        <v>42161</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
         <v>42158</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>121</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>124</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>126</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>127</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>125</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2620,16 +2727,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2675,6 +2784,20 @@
       </c>
       <c r="E3" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>42162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -610,6 +610,88 @@
     <t>融资政策继续收紧，券商也怕大跌带来的风险</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>证监会正在对《证券公司融资融券业务管理办法》及相关业务规则进行修订。条件成熟时，将按程序向市场公开征求意见</t>
+  </si>
+  <si>
+    <t>不确定什么时候出来征求意见和实际修订，将会是一个利空</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>“中国中车”6月8日在上海证券交易所和香港联交所鸣锣上市</t>
+  </si>
+  <si>
+    <t>为了维持该股表现，主力应该会拉抬下大盘</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>　AH股溢价指数创近三年新高</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>因流动性不一样，所以并没有很大的比较意义</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股是否纳入MSCI指数明日揭晓</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复加深人们印象，对大盘股利好</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期是利好，但目前来说只是一个利好消息而已</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际早盘开了高位后回调</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>前一天收盘后</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股纳入FTSE全球基准过渡指数（富时指数）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>多家券商上调两融保证金比例</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>实质性利空</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国证券金融股份有限公司</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日起转融通标的证券扩围至893只</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期利好，券商可以有更多的资金</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日起转融通标的证券由87只股票扩大至287只股</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日起转融通标的证券由287只股票扩大至625只股票</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期利好，券商可以有更多的资金，这个消息很早就已经放出来了</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>传闻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +887,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF474747"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1231,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,6 +1347,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1588,18 +1690,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="8" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="8" width="23.125" customWidth="1"/>
     <col min="9" max="9" width="37.125" customWidth="1"/>
     <col min="10" max="11" width="17.375" customWidth="1"/>
   </cols>
@@ -1644,100 +1749,121 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>42160</v>
+        <v>42164</v>
       </c>
       <c r="B2">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>156</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>42159</v>
+        <v>42164</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" t="s">
-        <v>144</v>
+        <v>153</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>42158</v>
+        <v>42160</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>148</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>146</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>144</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1745,152 +1871,161 @@
         <v>42157</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="B10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>42152</v>
+        <v>42156</v>
       </c>
       <c r="B14">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="B15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>42151</v>
+        <v>42153</v>
       </c>
       <c r="B16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="B17">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
+        <v>82</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1898,16 +2033,19 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="B18">
         <v>-0.25</v>
       </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
       <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1915,16 +2053,19 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
+        <v>-0.25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1932,16 +2073,25 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1949,36 +2099,33 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B22">
-        <v>0.1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="I22" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1986,19 +2133,16 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B23">
-        <v>-0.2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2006,22 +2150,19 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2029,33 +2170,39 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="B26">
-        <v>0.1</v>
+        <v>-0.2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="H26" t="s">
         <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2063,166 +2210,214 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>42145</v>
+        <v>42149</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
       <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>42012</v>
+        <v>42146</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>42011</v>
+        <v>42145</v>
       </c>
       <c r="B30">
-        <v>-0.5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
+        <v>0.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>42011</v>
+        <v>42145</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>42011</v>
+        <v>42144</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
-      </c>
-      <c r="I32" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>42011</v>
+        <v>42143</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
-      </c>
-      <c r="I33" t="s">
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" t="s">
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>101</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>42010</v>
+        <v>42142</v>
       </c>
       <c r="B34">
-        <v>-0.5</v>
-      </c>
-      <c r="C34">
-        <v>42009</v>
+        <v>0.5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>98</v>
+      </c>
+      <c r="K34" t="s">
+        <v>101</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>42009</v>
+        <v>42139</v>
       </c>
       <c r="B35">
-        <v>-0.5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>42009</v>
+        <v>42138</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>23</v>
+        <v>-0.05</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
+        <v>110</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2230,294 +2425,240 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>42004</v>
-      </c>
-      <c r="B37">
-        <v>0.5</v>
+        <v>42137</v>
+      </c>
+      <c r="G37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>42004</v>
+        <v>42129</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>-0.25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>163</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>42003</v>
+        <v>42129</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
-      </c>
-      <c r="H39" t="s">
-        <v>38</v>
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42124</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42130</v>
+      </c>
+      <c r="G39" t="s">
+        <v>169</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>165</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>42002</v>
+        <v>42012</v>
       </c>
       <c r="B40">
-        <v>-0.5</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
+        <v>0.1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>42002</v>
+        <v>42011</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>-0.5</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>41999</v>
+        <v>42011</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>41999</v>
+        <v>42011</v>
       </c>
       <c r="B43">
         <v>0.5</v>
       </c>
-      <c r="H43" t="s">
-        <v>43</v>
-      </c>
       <c r="I43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>41998</v>
+        <v>42011</v>
       </c>
       <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>36</v>
+        <v>0.5</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
       </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>41998</v>
+        <v>42010</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" t="s">
-        <v>39</v>
+        <v>-0.5</v>
+      </c>
+      <c r="C45">
+        <v>42009</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
         <v>32</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>41991</v>
+        <v>42009</v>
       </c>
       <c r="B46">
-        <v>-1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
+        <v>-0.5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>41991</v>
+        <v>42009</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>42144</v>
+        <v>42004</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>96</v>
+        <v>0.5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>42143</v>
+        <v>42004</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" t="s">
-        <v>102</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>100</v>
+      <c r="I49" t="s">
+        <v>53</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>42142</v>
+        <v>42003</v>
       </c>
       <c r="B50">
         <v>0.5</v>
       </c>
-      <c r="G50" t="s">
-        <v>105</v>
+      <c r="H50" t="s">
+        <v>38</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J50" t="s">
-        <v>98</v>
-      </c>
-      <c r="K50" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -2525,94 +2666,256 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>42139</v>
+        <v>42002</v>
       </c>
       <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>108</v>
+        <v>-0.5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s">
-        <v>107</v>
+        <v>32</v>
+      </c>
+      <c r="K51" t="s">
+        <v>45</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>42138</v>
+        <v>42002</v>
       </c>
       <c r="B52">
-        <v>-0.05</v>
-      </c>
-      <c r="G52" t="s">
-        <v>111</v>
+        <v>0.5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>109</v>
-      </c>
-      <c r="J52" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>42137</v>
-      </c>
-      <c r="G53" t="s">
-        <v>114</v>
+        <v>41999</v>
+      </c>
+      <c r="B53">
+        <v>0.5</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>41998</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>41998</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B57">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>41812</v>
+      </c>
+      <c r="B59">
+        <v>0.1</v>
+      </c>
+      <c r="D59" s="8">
+        <v>41810</v>
+      </c>
+      <c r="E59" s="1">
+        <v>41813</v>
+      </c>
+      <c r="G59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" t="s">
+        <v>164</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>41534</v>
+      </c>
+      <c r="B60">
+        <v>0.1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>41533</v>
+      </c>
+      <c r="E60" s="1">
+        <v>41535</v>
+      </c>
+      <c r="G60" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" t="s">
+        <v>167</v>
+      </c>
+      <c r="J60" t="s">
+        <v>164</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:J32">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState ref="A2:L60">
+    <sortCondition descending="1" ref="A13"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I23" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="I24" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="I25" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="I27" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="I47" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="I19" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="I17" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="I13" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="I12" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="I11" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="I9" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="I51" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="I52" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="I53" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="I3" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="I26" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="I27" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="I28" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="I30" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="I58" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="I22" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="I20" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="I16" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="I15" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="I14" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="I12" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="I35" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="I36" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="I37" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="I6" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="I38" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2718,6 +3021,23 @@
         <v>128</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4">
+        <v>42151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2727,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2800,6 +3120,17 @@
         <v>140</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="1">
+        <v>42162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="182">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -690,6 +690,50 @@
   </si>
   <si>
     <t>传闻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>券商着手整顿两融 机构或选择减持</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确有力的措施</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确有力的利空消息，当天暴跌，刚好主力有申购资金解冻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件结果</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不纳入，预期利好落空</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件影响和当日大盘走势</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>　国泰君安等24家公司获IPO批文</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期是利空，有个超级大盘股上市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　国泰君安加入降杠杆阵营 三类股票易被券商“拉黑”</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资融券及外围降杠杆</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1690,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1749,33 +1793,39 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>42164</v>
+        <v>42165</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
+        <v>42165</v>
+      </c>
+      <c r="B3">
+        <v>-0.1</v>
+      </c>
+      <c r="D3" s="1">
         <v>42164</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>178</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1783,16 +1833,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>156</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1800,16 +1850,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>42160</v>
+        <v>42164</v>
       </c>
       <c r="B5">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1817,16 +1867,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1834,16 +1884,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>42159</v>
+        <v>42160</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1851,16 +1901,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1868,16 +1918,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1885,16 +1935,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1905,13 +1955,13 @@
         <v>42157</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1925,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>94</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1936,19 +1986,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="B13">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1956,19 +2003,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1976,19 +2020,19 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1996,7 +2040,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2008,7 +2052,7 @@
         <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2016,16 +2060,19 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="B17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2033,19 +2080,19 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="B18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2053,19 +2100,16 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="B19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -2073,25 +2117,19 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="B20">
         <v>-0.25</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2104,11 +2142,14 @@
       <c r="B21">
         <v>-0.25</v>
       </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2116,16 +2157,25 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2133,16 +2183,16 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2153,16 +2203,13 @@
         <v>42150</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2170,19 +2217,16 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2190,19 +2234,19 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="B26">
-        <v>-0.2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I26" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2213,19 +2257,16 @@
         <v>42149</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2233,33 +2274,42 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-0.2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="B29">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2267,19 +2317,16 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -2287,74 +2334,62 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
+        <v>0.1</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>42143</v>
+        <v>42145</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="L33">
         <v>3</v>
@@ -2362,79 +2397,91 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>42142</v>
+        <v>42144</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J34" t="s">
         <v>98</v>
       </c>
-      <c r="K34" t="s">
-        <v>101</v>
-      </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>42139</v>
+        <v>42143</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="I35" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="K35" t="s">
+        <v>101</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>42138</v>
+        <v>42142</v>
       </c>
       <c r="B36">
-        <v>-0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="K36" t="s">
+        <v>101</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>42137</v>
+        <v>42139</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
-      </c>
-      <c r="H37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>107</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2442,16 +2489,19 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>42129</v>
+        <v>42138</v>
       </c>
       <c r="B38">
-        <v>-0.25</v>
+        <v>-0.05</v>
       </c>
       <c r="G38" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="I38" t="s">
-        <v>162</v>
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>110</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2459,25 +2509,16 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>42129</v>
-      </c>
-      <c r="B39">
-        <v>0.1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>42124</v>
-      </c>
-      <c r="E39" s="1">
-        <v>42130</v>
+        <v>42137</v>
       </c>
       <c r="G39" t="s">
-        <v>169</v>
+        <v>114</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2485,44 +2526,62 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>42012</v>
+        <v>42129</v>
       </c>
       <c r="B40">
-        <v>0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="G40" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>42011</v>
+        <v>42129</v>
       </c>
       <c r="B41">
-        <v>-0.5</v>
-      </c>
-      <c r="H41" t="s">
-        <v>23</v>
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42124</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42130</v>
+      </c>
+      <c r="G41" t="s">
+        <v>169</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>165</v>
+      </c>
+      <c r="J41" t="s">
+        <v>164</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>170</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2530,10 +2589,13 @@
         <v>42011</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
       </c>
       <c r="I43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2541,87 +2603,72 @@
         <v>42011</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>42010</v>
+        <v>42011</v>
       </c>
       <c r="B45">
-        <v>-0.5</v>
-      </c>
-      <c r="C45">
-        <v>42009</v>
+        <v>0.5</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
-      </c>
-      <c r="J45" t="s">
-        <v>32</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="B46">
-        <v>-0.5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="K46" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
+        <v>42010</v>
+      </c>
+      <c r="B47">
+        <v>-0.5</v>
+      </c>
+      <c r="C47">
         <v>42009</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>23</v>
-      </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -2629,36 +2676,36 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
       <c r="I49" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>42003</v>
+        <v>42004</v>
       </c>
       <c r="B50">
         <v>0.5</v>
       </c>
-      <c r="H50" t="s">
-        <v>38</v>
-      </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -2666,128 +2713,119 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="B51">
-        <v>-0.5</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="B52">
         <v>0.5</v>
       </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="H53" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="K53" t="s">
+        <v>45</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="B54">
         <v>0.5</v>
       </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="B56">
         <v>0.5</v>
       </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -2795,62 +2833,62 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="B57">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I58" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>41812</v>
+        <v>41991</v>
       </c>
       <c r="B59">
-        <v>0.1</v>
-      </c>
-      <c r="D59" s="8">
-        <v>41810</v>
-      </c>
-      <c r="E59" s="1">
-        <v>41813</v>
-      </c>
-      <c r="G59" t="s">
-        <v>166</v>
+        <v>-1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>168</v>
-      </c>
-      <c r="J59" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -2858,28 +2896,97 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>41812</v>
+      </c>
+      <c r="B61">
+        <v>0.1</v>
+      </c>
+      <c r="D61" s="8">
+        <v>41810</v>
+      </c>
+      <c r="E61" s="1">
+        <v>41813</v>
+      </c>
+      <c r="G61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" t="s">
+        <v>164</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
         <v>41534</v>
       </c>
-      <c r="B60">
+      <c r="B62">
         <v>0.1</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D62" s="1">
         <v>41533</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E62" s="1">
         <v>41535</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G62" t="s">
         <v>166</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I62" t="s">
         <v>167</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J62" t="s">
         <v>164</v>
       </c>
-      <c r="L60">
-        <v>1</v>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>42022</v>
+      </c>
+      <c r="B63">
+        <v>-2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>174</v>
+      </c>
+      <c r="H63" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" t="s">
+        <v>171</v>
+      </c>
+      <c r="J63" t="s">
+        <v>173</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2888,25 +2995,27 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I26" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="I27" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="I28" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="I30" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="I58" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="I22" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="I20" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="I16" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="I15" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="I14" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="I12" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="I35" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="I36" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="I37" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="I6" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
-    <hyperlink ref="I38" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="I28" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="I29" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="I30" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="I32" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="I60" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="I24" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="I22" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="I18" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="I17" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="I16" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="I14" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="I37" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="I38" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="I39" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="I8" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="I40" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="I3" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
+    <hyperlink ref="I2" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3047,21 +3156,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="2" max="4" width="23.375" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -3069,65 +3178,77 @@
         <v>130</v>
       </c>
       <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>42159</v>
       </c>
       <c r="B2" s="6">
         <v>42165.208333333336</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>42159</v>
       </c>
       <c r="B3" s="1">
         <v>42186</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>42162</v>
       </c>
       <c r="B4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="1">
         <v>42162</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>150</v>
       </c>
     </row>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -736,15 +736,112 @@
     <t>融资融券及外围降杠杆</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>股指贴水，对后期是利空的</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在经过前期大幅升水之后，本周以来三个交易日，沪深300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF05529A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>股指期货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出现显著贴水</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天利空影响值</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期利空指标值（数值越大表明多空力量越大）</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行下调全年经济增速预测至7%</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济和股市的走势并非完全一致</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>多家银行酝酿混改 拆分业务成新看点</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅是酝酿，后期对银行利好</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>传闻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>备受市场关注的融资融券新规公开征求意见</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果严格按照该意见稿实施，绝对是个大利空，严格限制50w，券商融资只能是净资产4倍，往上空间仅1万亿</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国5月份各项经济数据比预期要差</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>利空，但对中国股市不一定能马上起作用</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>传闻</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会主席在党校讲话，改革牛成立，经济增长率7%可以支撑股市上涨</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期是利好，但短期没有什么作用</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +1037,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FF474747"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF05529A"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1371,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1397,6 +1502,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1734,1258 +1842,1339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="37.125" customWidth="1"/>
-    <col min="10" max="11" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="37.125" customWidth="1"/>
+    <col min="11" max="12" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
+        <v>42170</v>
+      </c>
+      <c r="B2" s="9">
+        <v>-0.01</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>42167</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>42166</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>42166</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-0.01</v>
+      </c>
+      <c r="H5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
         <v>42165</v>
       </c>
-      <c r="B2">
+      <c r="C6">
         <v>-0.1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H6" t="s">
         <v>181</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J6" t="s">
         <v>180</v>
       </c>
-      <c r="L2">
+      <c r="M6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
         <v>42165</v>
       </c>
-      <c r="B3">
+      <c r="C7">
         <v>-0.1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E7" s="1">
         <v>42164</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H7" t="s">
         <v>179</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J7" t="s">
         <v>178</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K7" t="s">
         <v>173</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
         <v>42164</v>
       </c>
-      <c r="B4">
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H8" t="s">
         <v>157</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J8" t="s">
         <v>156</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
         <v>42164</v>
       </c>
-      <c r="B5">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H9" t="s">
         <v>155</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J9" t="s">
         <v>154</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
         <v>42163</v>
       </c>
-      <c r="B6">
+      <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H10" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
         <v>42160</v>
       </c>
-      <c r="B7">
+      <c r="C11">
         <v>-0.1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H11" t="s">
         <v>149</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J11" t="s">
         <v>148</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
         <v>42159</v>
       </c>
-      <c r="B8">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H12" t="s">
         <v>147</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J12" t="s">
         <v>146</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
         <v>42159</v>
       </c>
-      <c r="B9">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H13" t="s">
         <v>145</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J13" t="s">
         <v>144</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
         <v>42158</v>
       </c>
-      <c r="B10">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H14" t="s">
         <v>119</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J14" t="s">
         <v>118</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
         <v>42157</v>
       </c>
-      <c r="B11">
+      <c r="C15">
         <v>0.2</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H15" t="s">
         <v>117</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J15" t="s">
         <v>116</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
         <v>42157</v>
       </c>
-      <c r="B12">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H16" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J16" t="s">
         <v>94</v>
       </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
         <v>42157</v>
       </c>
-      <c r="B13">
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
         <v>42157</v>
       </c>
-      <c r="B14">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H18" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
         <v>42156</v>
       </c>
-      <c r="B15">
+      <c r="C19">
         <v>-0.25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I19" t="s">
         <v>14</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J19" t="s">
         <v>75</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1">
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
         <v>42156</v>
       </c>
-      <c r="B16">
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H20" t="s">
         <v>71</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I20" t="s">
         <v>68</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J20" t="s">
         <v>76</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
         <v>42153</v>
       </c>
-      <c r="B17">
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H21" t="s">
         <v>70</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I21" t="s">
         <v>72</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J21" t="s">
         <v>77</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
         <v>42153</v>
       </c>
-      <c r="B18">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I22" t="s">
         <v>68</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J22" t="s">
         <v>78</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
         <v>42152</v>
       </c>
-      <c r="B19">
+      <c r="C23">
         <v>-0.5</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H23" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
         <v>42152</v>
       </c>
-      <c r="B20">
+      <c r="C24">
         <v>-0.25</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H24" t="s">
         <v>84</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I24" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
         <v>42151</v>
       </c>
-      <c r="B21">
+      <c r="C25">
         <v>-0.25</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H25" t="s">
         <v>86</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I25" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
         <v>42151</v>
       </c>
-      <c r="B22">
+      <c r="C26">
         <v>-0.25</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H26" t="s">
         <v>89</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I26" t="s">
         <v>88</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J26" t="s">
         <v>79</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K26" t="s">
         <v>32</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L26" t="s">
         <v>33</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
         <v>42151</v>
       </c>
-      <c r="B23">
+      <c r="C27">
         <v>-0.25</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I27" t="s">
         <v>34</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J27" t="s">
         <v>80</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
         <v>42150</v>
       </c>
-      <c r="B24">
+      <c r="C28">
         <v>0.5</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J28" t="s">
         <v>29</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K28" t="s">
         <v>31</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
         <v>42150</v>
       </c>
-      <c r="B25">
+      <c r="C29">
         <v>0.5</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J29" t="s">
         <v>30</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K29" t="s">
         <v>17</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
         <v>42150</v>
       </c>
-      <c r="B26">
+      <c r="C30">
         <v>-1</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J30" t="s">
         <v>65</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K30" t="s">
         <v>66</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L30" t="s">
         <v>67</v>
       </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
         <v>42149</v>
       </c>
-      <c r="B27">
+      <c r="C31">
         <v>0.1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I31" t="s">
         <v>7</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J31" t="s">
         <v>6</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
         <v>42149</v>
       </c>
-      <c r="B28">
+      <c r="C32">
         <v>-0.2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I32" t="s">
         <v>7</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J32" t="s">
         <v>8</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
         <v>42149</v>
       </c>
-      <c r="B29">
+      <c r="C33">
         <v>0</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E33" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I33" t="s">
         <v>14</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J33" t="s">
         <v>10</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L33" t="s">
         <v>12</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
         <v>42146</v>
       </c>
-      <c r="B30">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I34" t="s">
         <v>14</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J34" t="s">
         <v>15</v>
       </c>
-      <c r="L30">
+      <c r="M34">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1">
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
         <v>42146</v>
       </c>
-      <c r="B31">
+      <c r="C35">
         <v>0.1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I35" t="s">
         <v>7</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J35" t="s">
         <v>16</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
         <v>42145</v>
       </c>
-      <c r="B32">
+      <c r="C36">
         <v>0.5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J36" t="s">
         <v>18</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K36" t="s">
         <v>17</v>
       </c>
-      <c r="L32">
+      <c r="M36">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1">
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
         <v>42145</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>13</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I37" t="s">
         <v>21</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J37" t="s">
         <v>19</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K37" t="s">
         <v>20</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="L33">
+      <c r="M37">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1">
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
         <v>42144</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>97</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H38" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K38" t="s">
         <v>98</v>
       </c>
-      <c r="L34">
+      <c r="M38">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1">
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
         <v>42143</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>103</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H39" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K39" t="s">
         <v>98</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L39" t="s">
         <v>101</v>
       </c>
-      <c r="L35">
+      <c r="M39">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1">
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
         <v>42142</v>
       </c>
-      <c r="B36">
+      <c r="C40">
         <v>0.5</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H40" t="s">
         <v>105</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J40" t="s">
         <v>104</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K40" t="s">
         <v>98</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L40" t="s">
         <v>101</v>
       </c>
-      <c r="L36">
+      <c r="M40">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1">
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
         <v>42139</v>
       </c>
-      <c r="B37">
+      <c r="C41">
         <v>0</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H41" t="s">
         <v>108</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J41" t="s">
         <v>106</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K41" t="s">
         <v>107</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1">
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
         <v>42138</v>
       </c>
-      <c r="B38">
+      <c r="C42">
         <v>-0.05</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H42" t="s">
         <v>111</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J42" t="s">
         <v>109</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K42" t="s">
         <v>110</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
         <v>42137</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H43" t="s">
         <v>114</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I43" t="s">
         <v>113</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J43" t="s">
         <v>112</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1">
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
         <v>42129</v>
       </c>
-      <c r="B40">
+      <c r="C44">
         <v>-0.25</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H44" t="s">
         <v>163</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J44" t="s">
         <v>162</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
         <v>42129</v>
       </c>
-      <c r="B41">
+      <c r="C45">
         <v>0.1</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E45" s="1">
         <v>42124</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F45" s="1">
         <v>42130</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H45" t="s">
         <v>169</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J45" t="s">
         <v>165</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K45" t="s">
         <v>164</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
         <v>42012</v>
       </c>
-      <c r="B42">
+      <c r="C46">
         <v>0.1</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H46" t="s">
         <v>170</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J46" t="s">
         <v>64</v>
       </c>
-      <c r="L42">
+      <c r="M46">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1">
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
         <v>42011</v>
       </c>
-      <c r="B43">
+      <c r="C47">
         <v>-0.5</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I47" t="s">
         <v>23</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1">
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
         <v>42011</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1">
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
         <v>42011</v>
       </c>
-      <c r="B45">
+      <c r="C49">
         <v>0.5</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1">
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
         <v>42011</v>
       </c>
-      <c r="B46">
+      <c r="C50">
         <v>0.5</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J50" t="s">
         <v>63</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1">
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
         <v>42010</v>
       </c>
-      <c r="B47">
+      <c r="C51">
         <v>-0.5</v>
       </c>
-      <c r="C47">
+      <c r="D51">
         <v>42009</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J51" t="s">
         <v>59</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K51" t="s">
         <v>32</v>
       </c>
-      <c r="L47">
+      <c r="M51">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1">
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
         <v>42009</v>
       </c>
-      <c r="B48">
+      <c r="C52">
         <v>-0.5</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J52" t="s">
         <v>56</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K52" t="s">
         <v>57</v>
       </c>
-      <c r="L48">
+      <c r="M52">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
         <v>42009</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>23</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J53" t="s">
         <v>58</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
         <v>42004</v>
       </c>
-      <c r="B50">
+      <c r="C54">
         <v>0.5</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J54" t="s">
         <v>51</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K54" t="s">
         <v>52</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L54" t="s">
         <v>27</v>
       </c>
-      <c r="L50">
+      <c r="M54">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1">
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
         <v>42004</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
         <v>53</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K55" t="s">
         <v>54</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L55" t="s">
         <v>55</v>
       </c>
-      <c r="L51">
+      <c r="M55">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
         <v>42003</v>
       </c>
-      <c r="B52">
+      <c r="C56">
         <v>0.5</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I56" t="s">
         <v>38</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J56" t="s">
         <v>50</v>
       </c>
-      <c r="L52">
+      <c r="M56">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1">
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
         <v>42002</v>
       </c>
-      <c r="B53">
+      <c r="C57">
         <v>-0.5</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I57" t="s">
         <v>47</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J57" t="s">
         <v>46</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K57" t="s">
         <v>32</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L57" t="s">
         <v>45</v>
       </c>
-      <c r="L53">
+      <c r="M57">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1">
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
         <v>42002</v>
       </c>
-      <c r="B54">
+      <c r="C58">
         <v>0.5</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I58" t="s">
         <v>48</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J58" t="s">
         <v>49</v>
       </c>
-      <c r="L54">
+      <c r="M58">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1">
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
         <v>41999</v>
       </c>
-      <c r="B55">
+      <c r="C59">
         <v>0.5</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I59" t="s">
         <v>42</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J59" t="s">
         <v>40</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K59" t="s">
         <v>17</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1">
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
         <v>41999</v>
       </c>
-      <c r="B56">
+      <c r="C60">
         <v>0.5</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I60" t="s">
         <v>43</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J60" t="s">
         <v>41</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K60" t="s">
         <v>44</v>
       </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1">
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
         <v>41998</v>
       </c>
-      <c r="B57">
+      <c r="C61">
         <v>2</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I61" t="s">
         <v>36</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J61" t="s">
         <v>35</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K61" t="s">
         <v>20</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L61" t="s">
         <v>22</v>
       </c>
-      <c r="L57">
+      <c r="M61">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1">
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
         <v>41998</v>
       </c>
-      <c r="B58">
+      <c r="C62">
         <v>0.5</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I62" t="s">
         <v>39</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J62" t="s">
         <v>37</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K62" t="s">
         <v>32</v>
       </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1">
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
         <v>41991</v>
       </c>
-      <c r="B59">
+      <c r="C63">
         <v>-1</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I63" t="s">
         <v>23</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J63" t="s">
         <v>25</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1">
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
         <v>41991</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>28</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J64" t="s">
         <v>26</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L64" t="s">
         <v>27</v>
       </c>
-      <c r="L60">
+      <c r="M64">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1">
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
         <v>41812</v>
       </c>
-      <c r="B61">
+      <c r="C65">
         <v>0.1</v>
       </c>
-      <c r="D61" s="8">
+      <c r="E65" s="8">
         <v>41810</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F65" s="1">
         <v>41813</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H65" t="s">
         <v>166</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J65" t="s">
         <v>168</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K65" t="s">
         <v>164</v>
       </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1">
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
         <v>41534</v>
       </c>
-      <c r="B62">
+      <c r="C66">
         <v>0.1</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E66" s="1">
         <v>41533</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F66" s="1">
         <v>41535</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H66" t="s">
         <v>166</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J66" t="s">
         <v>167</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K66" t="s">
         <v>164</v>
       </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1">
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
         <v>42022</v>
       </c>
-      <c r="B63">
+      <c r="C67">
         <v>-2</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H67" t="s">
         <v>174</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I67" t="s">
         <v>172</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J67" t="s">
         <v>171</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K67" t="s">
         <v>173</v>
       </c>
-      <c r="L63">
+      <c r="M67">
         <v>2</v>
       </c>
     </row>
@@ -2995,36 +3184,38 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I28" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="I29" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="I30" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="I32" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="I60" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="I24" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="I22" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="I18" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="I17" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="I16" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="I14" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="I37" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="I38" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="I39" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="I8" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
-    <hyperlink ref="I40" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
-    <hyperlink ref="I3" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
-    <hyperlink ref="I2" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
+    <hyperlink ref="J32" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="J33" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="J34" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="J36" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="J64" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="J28" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="J26" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="J22" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="J21" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="J20" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="J18" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="J41" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="J42" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="J43" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="J12" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="J44" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="J7" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
+    <hyperlink ref="J6" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
+    <hyperlink ref="J4" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
+    <hyperlink ref="J3" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3145,6 +3336,57 @@
       </c>
       <c r="H6" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
+        <v>42170</v>
+      </c>
+      <c r="B7">
+        <v>-0.01</v>
+      </c>
+      <c r="G7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4">
+        <v>42169</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4">
+        <v>42169</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -832,16 +832,32 @@
     <t>中期是利好，但短期没有什么作用</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>　打新明日开启 预计冻结资金逾5.7万亿</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>该消息滞后，利空已被预期</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保基金连续十月零开户 QFII抢入</t>
+  </si>
+  <si>
+    <t>社保基金是超长线的资金，所以超长线来看股市已无投资价值</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1049,6 +1065,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1476,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1505,6 +1527,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1842,16 +1870,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="10" customWidth="1"/>
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
@@ -1866,7 +1894,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C1" t="s">
@@ -1905,96 +1933,96 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>42170</v>
-      </c>
-      <c r="B2" s="9">
+        <v>42171</v>
+      </c>
+      <c r="B2" s="10">
         <v>-0.01</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" s="10">
+        <v>-0.01</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>42167</v>
-      </c>
-      <c r="B3" s="9">
+        <v>42170</v>
+      </c>
+      <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="K3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>42166</v>
-      </c>
-      <c r="B4" s="9">
+        <v>42167</v>
+      </c>
+      <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="I4" t="s">
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>42166</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>42165</v>
+        <v>42166</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2004,34 +2032,34 @@
       <c r="C7">
         <v>-0.1</v>
       </c>
-      <c r="E7" s="1">
-        <v>42164</v>
-      </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
+        <v>42165</v>
+      </c>
+      <c r="C8">
+        <v>-0.1</v>
+      </c>
+      <c r="E8" s="1">
         <v>42164</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>178</v>
+      </c>
+      <c r="K8" t="s">
+        <v>173</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -2045,10 +2073,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -2056,16 +2084,16 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2073,16 +2101,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="C11">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -2090,16 +2118,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>42159</v>
+        <v>42160</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -2113,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2124,16 +2152,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2141,16 +2169,16 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2161,13 +2189,13 @@
         <v>42157</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2181,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2198,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2209,19 +2237,16 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2232,16 +2257,16 @@
         <v>42156</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2249,19 +2274,19 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2275,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2289,16 +2314,19 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="C23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2309,16 +2337,13 @@
         <v>42152</v>
       </c>
       <c r="C24">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2326,19 +2351,19 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="C25">
         <v>-0.25</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
         <v>87</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2352,19 +2377,13 @@
         <v>-0.25</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2377,11 +2396,20 @@
       <c r="C27">
         <v>-0.25</v>
       </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2389,16 +2417,16 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2412,10 +2440,10 @@
         <v>0.5</v>
       </c>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2426,16 +2454,13 @@
         <v>42150</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2443,19 +2468,19 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" t="s">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="K31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" t="s">
+        <v>67</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2466,7 +2491,7 @@
         <v>42149</v>
       </c>
       <c r="C32">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -2475,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2486,19 +2511,16 @@
         <v>42149</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2506,19 +2528,25 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
       <c r="I34" t="s">
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2526,36 +2554,33 @@
         <v>42146</v>
       </c>
       <c r="C35">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
+        <v>0.1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2563,45 +2588,42 @@
         <v>42145</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
       </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>98</v>
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
       </c>
       <c r="M38">
         <v>3</v>
@@ -2609,42 +2631,42 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>42143</v>
+        <v>42144</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s">
         <v>98</v>
       </c>
-      <c r="L39" t="s">
-        <v>101</v>
-      </c>
       <c r="M39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>42142</v>
+        <v>42143</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
       </c>
       <c r="H40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="K40" t="s">
         <v>98</v>
@@ -2653,44 +2675,47 @@
         <v>101</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>42139</v>
+        <v>42142</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="L41" t="s">
+        <v>101</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>42138</v>
+        <v>42139</v>
       </c>
       <c r="C42">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2698,16 +2723,19 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>42137</v>
+        <v>42138</v>
+      </c>
+      <c r="C43">
+        <v>-0.05</v>
       </c>
       <c r="H43" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
+        <v>110</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -2715,16 +2743,16 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>42129</v>
-      </c>
-      <c r="C44">
-        <v>-0.25</v>
+        <v>42137</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="I44" t="s">
+        <v>113</v>
       </c>
       <c r="J44" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2735,22 +2763,13 @@
         <v>42129</v>
       </c>
       <c r="C45">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>42124</v>
-      </c>
-      <c r="F45" s="1">
-        <v>42130</v>
+        <v>-0.25</v>
       </c>
       <c r="H45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
-      </c>
-      <c r="K45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2758,33 +2777,45 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>42012</v>
+        <v>42129</v>
       </c>
       <c r="C46">
         <v>0.1</v>
       </c>
+      <c r="E46" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F46" s="1">
+        <v>42130</v>
+      </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="K46" t="s">
+        <v>164</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="C47">
-        <v>-0.5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>23</v>
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>170</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2792,10 +2823,13 @@
         <v>42011</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>-0.5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2803,10 +2837,10 @@
         <v>42011</v>
       </c>
       <c r="C49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2817,50 +2851,41 @@
         <v>0.5</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>42010</v>
+        <v>42011</v>
       </c>
       <c r="C51">
-        <v>-0.5</v>
-      </c>
-      <c r="D51">
-        <v>42009</v>
+        <v>0.5</v>
       </c>
       <c r="J51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="L51" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>42009</v>
+        <v>42010</v>
       </c>
       <c r="C52">
         <v>-0.5</v>
       </c>
-      <c r="E52" t="s">
-        <v>9</v>
+      <c r="D52">
+        <v>42009</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2868,36 +2893,36 @@
         <v>42009</v>
       </c>
       <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>23</v>
+        <v>-0.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="K53" t="s">
+        <v>57</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="C54">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
-      </c>
-      <c r="K54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L54" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2905,16 +2930,16 @@
         <v>42004</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L55" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M55">
         <v>2</v>
@@ -2922,16 +2947,19 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>42003</v>
+        <v>42004</v>
       </c>
       <c r="C56">
-        <v>0.5</v>
-      </c>
-      <c r="I56" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="K56" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" t="s">
+        <v>55</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -2939,25 +2967,19 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="C57">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
-      </c>
-      <c r="K57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L57" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2965,39 +2987,42 @@
         <v>42002</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
+        <v>-0.5</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>45</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="C59">
         <v>0.5</v>
       </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K59" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3008,13 +3033,13 @@
         <v>0.5</v>
       </c>
       <c r="I60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -3022,25 +3047,22 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3048,36 +3070,42 @@
         <v>41998</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="C63">
-        <v>-1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3088,65 +3116,56 @@
         <v>41991</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I64" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>41812</v>
+        <v>41991</v>
       </c>
       <c r="C65">
-        <v>0.1</v>
-      </c>
-      <c r="E65" s="8">
-        <v>41810</v>
-      </c>
-      <c r="F65" s="1">
-        <v>41813</v>
-      </c>
-      <c r="H65" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>28</v>
       </c>
       <c r="J65" t="s">
-        <v>168</v>
-      </c>
-      <c r="K65" t="s">
-        <v>164</v>
+        <v>26</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>41534</v>
+        <v>41812</v>
       </c>
       <c r="C66">
         <v>0.1</v>
       </c>
-      <c r="E66" s="1">
-        <v>41533</v>
+      <c r="E66" s="8">
+        <v>41810</v>
       </c>
       <c r="F66" s="1">
-        <v>41535</v>
+        <v>41813</v>
       </c>
       <c r="H66" t="s">
         <v>166</v>
       </c>
       <c r="J66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K66" t="s">
         <v>164</v>
@@ -3157,24 +3176,50 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
+        <v>41534</v>
+      </c>
+      <c r="C67">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>41533</v>
+      </c>
+      <c r="F67" s="1">
+        <v>41535</v>
+      </c>
+      <c r="H67" t="s">
+        <v>166</v>
+      </c>
+      <c r="J67" t="s">
+        <v>167</v>
+      </c>
+      <c r="K67" t="s">
+        <v>164</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
         <v>42022</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>-2</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H68" t="s">
         <v>174</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I68" t="s">
         <v>172</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J68" t="s">
         <v>171</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K68" t="s">
         <v>173</v>
       </c>
-      <c r="M67">
+      <c r="M68">
         <v>2</v>
       </c>
     </row>
@@ -3184,38 +3229,39 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J32" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="J33" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="J34" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="J36" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="J64" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="J28" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="J26" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="J22" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="J21" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="J20" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="J18" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="J41" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="J42" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="J43" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="J12" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
-    <hyperlink ref="J44" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
-    <hyperlink ref="J7" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
-    <hyperlink ref="J6" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
-    <hyperlink ref="J4" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
-    <hyperlink ref="J3" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
+    <hyperlink ref="J33" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="J34" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="J35" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="J37" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="J65" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="J29" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="J27" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="J23" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="J22" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="J21" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="J19" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="J42" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="J43" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="J44" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="J13" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="J45" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="J8" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
+    <hyperlink ref="J7" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
+    <hyperlink ref="J5" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
+    <hyperlink ref="J4" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
+    <hyperlink ref="J2" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3387,6 +3433,17 @@
       </c>
       <c r="K9" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25">
+      <c r="A10" s="4">
+        <v>42171</v>
+      </c>
+      <c r="G10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -847,6 +847,22 @@
     <t>社保基金是超长线的资金，所以超长线来看股市已无投资价值</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>下半年银行股有三大上涨催化剂</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>下半年银行板块应该会有机会</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>券商再融资为两融补血 距“天花板”还有2万亿元空间</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>券商再融资，说明中长线还会上涨</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -855,7 +871,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1529,7 +1545,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1870,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1933,24 +1949,24 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>42171</v>
+        <v>42172</v>
       </c>
       <c r="B2" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>206</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>42170</v>
+        <v>42172</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -1959,38 +1975,38 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" t="s">
-        <v>193</v>
+        <v>204</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>42167</v>
+        <v>42171</v>
       </c>
       <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>-0.01</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-0.01</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
-        <v>189</v>
+        <v>200</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>42166</v>
+        <v>42170</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
@@ -1999,67 +2015,79 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>42166</v>
+        <v>42167</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="I6" t="s">
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>189</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>42165</v>
+        <v>42166</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="K7" t="s">
+        <v>187</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>42165</v>
+        <v>42166</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-0.1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>42164</v>
+        <v>-0.01</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -2067,33 +2095,39 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>42164</v>
+        <v>42165</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
+        <v>42165</v>
+      </c>
+      <c r="C10">
+        <v>-0.1</v>
+      </c>
+      <c r="E10" s="1">
         <v>42164</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>178</v>
+      </c>
+      <c r="K10" t="s">
+        <v>173</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -2101,16 +2135,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -2118,16 +2152,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>42160</v>
+        <v>42164</v>
       </c>
       <c r="C12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -2135,16 +2169,16 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
-      </c>
-      <c r="J13" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2152,16 +2186,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>42159</v>
+        <v>42160</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2169,16 +2203,16 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2186,16 +2220,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2203,16 +2237,16 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2223,13 +2257,13 @@
         <v>42157</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2243,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2254,19 +2288,16 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C20">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2274,19 +2305,16 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2294,19 +2322,19 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2314,7 +2342,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2326,7 +2354,7 @@
         <v>68</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2334,16 +2362,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="C24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2351,19 +2382,19 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="C25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2371,19 +2402,16 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="C26">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2391,25 +2419,19 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="C27">
         <v>-0.25</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2422,11 +2444,14 @@
       <c r="C28">
         <v>-0.25</v>
       </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
       <c r="I28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2434,16 +2459,25 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2451,16 +2485,16 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C30">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2471,16 +2505,13 @@
         <v>42150</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2488,19 +2519,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C32">
-        <v>0.1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="J32" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2508,19 +2536,19 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C33">
-        <v>-0.2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="K33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" t="s">
+        <v>67</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2531,19 +2559,16 @@
         <v>42149</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2551,33 +2576,42 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="C36">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>12</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2585,19 +2619,16 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M37">
         <v>2</v>
@@ -2605,74 +2636,62 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
+        <v>0.1</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>42143</v>
+        <v>42145</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -2680,79 +2699,91 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>42142</v>
+        <v>42144</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
       </c>
       <c r="H41" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="K41" t="s">
         <v>98</v>
       </c>
-      <c r="L41" t="s">
-        <v>101</v>
-      </c>
       <c r="M41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>42139</v>
+        <v>42143</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="L42" t="s">
+        <v>101</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>42138</v>
+        <v>42142</v>
       </c>
       <c r="C43">
-        <v>-0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K43" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="L43" t="s">
+        <v>101</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>42137</v>
+        <v>42139</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="K44" t="s">
+        <v>107</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2760,16 +2791,19 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>42129</v>
+        <v>42138</v>
       </c>
       <c r="C45">
-        <v>-0.25</v>
+        <v>-0.05</v>
       </c>
       <c r="H45" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="J45" t="s">
-        <v>162</v>
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>110</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2777,25 +2811,16 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>42129</v>
-      </c>
-      <c r="C46">
-        <v>0.1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>42124</v>
-      </c>
-      <c r="F46" s="1">
-        <v>42130</v>
+        <v>42137</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>114</v>
+      </c>
+      <c r="I46" t="s">
+        <v>113</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
-      </c>
-      <c r="K46" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2803,44 +2828,62 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>42012</v>
+        <v>42129</v>
       </c>
       <c r="C47">
-        <v>0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="H47" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>42011</v>
+        <v>42129</v>
       </c>
       <c r="C48">
-        <v>-0.5</v>
-      </c>
-      <c r="I48" t="s">
-        <v>23</v>
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F48" s="1">
+        <v>42130</v>
+      </c>
+      <c r="H48" t="s">
+        <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>60</v>
+        <v>165</v>
+      </c>
+      <c r="K48" t="s">
+        <v>164</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>170</v>
       </c>
       <c r="J49" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2848,10 +2891,13 @@
         <v>42011</v>
       </c>
       <c r="C50">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2859,87 +2905,72 @@
         <v>42011</v>
       </c>
       <c r="C51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>63</v>
-      </c>
-      <c r="L51" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>42010</v>
+        <v>42011</v>
       </c>
       <c r="C52">
-        <v>-0.5</v>
-      </c>
-      <c r="D52">
-        <v>42009</v>
+        <v>0.5</v>
       </c>
       <c r="J52" t="s">
-        <v>59</v>
-      </c>
-      <c r="K52" t="s">
-        <v>32</v>
-      </c>
-      <c r="M52">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="C53">
-        <v>-0.5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" t="s">
-        <v>57</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="L53" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
+        <v>42010</v>
+      </c>
+      <c r="C54">
+        <v>-0.5</v>
+      </c>
+      <c r="D54">
         <v>42009</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>23</v>
-      </c>
       <c r="J54" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K54" t="s">
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="C55">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K55" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M55">
         <v>2</v>
@@ -2947,36 +2978,36 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
       <c r="J56" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" t="s">
-        <v>54</v>
-      </c>
-      <c r="L56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>42003</v>
+        <v>42004</v>
       </c>
       <c r="C57">
         <v>0.5</v>
       </c>
-      <c r="I57" t="s">
-        <v>38</v>
-      </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="K57" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" t="s">
+        <v>27</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -2984,128 +3015,119 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="C58">
-        <v>-0.5</v>
-      </c>
-      <c r="I58" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L58" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="C59">
         <v>0.5</v>
       </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="C60">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="L60" t="s">
+        <v>45</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="C61">
         <v>0.5</v>
       </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I62" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="C63">
         <v>0.5</v>
       </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K63" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3113,62 +3135,62 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="C64">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J64" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
       </c>
       <c r="I65" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
-      </c>
-      <c r="L65" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="K65" t="s">
+        <v>32</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>41812</v>
+        <v>41991</v>
       </c>
       <c r="C66">
-        <v>0.1</v>
-      </c>
-      <c r="E66" s="8">
-        <v>41810</v>
-      </c>
-      <c r="F66" s="1">
-        <v>41813</v>
-      </c>
-      <c r="H66" t="s">
-        <v>166</v>
+        <v>-1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>168</v>
-      </c>
-      <c r="K66" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3176,50 +3198,96 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>41534</v>
+        <v>41991</v>
       </c>
       <c r="C67">
-        <v>0.1</v>
-      </c>
-      <c r="E67" s="1">
-        <v>41533</v>
-      </c>
-      <c r="F67" s="1">
-        <v>41535</v>
-      </c>
-      <c r="H67" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>28</v>
       </c>
       <c r="J67" t="s">
-        <v>167</v>
-      </c>
-      <c r="K67" t="s">
-        <v>164</v>
+        <v>26</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
+        <v>41812</v>
+      </c>
+      <c r="C68">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>41810</v>
+      </c>
+      <c r="F68" s="1">
+        <v>41813</v>
+      </c>
+      <c r="H68" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" t="s">
+        <v>168</v>
+      </c>
+      <c r="K68" t="s">
+        <v>164</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>41534</v>
+      </c>
+      <c r="C69">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>41533</v>
+      </c>
+      <c r="F69" s="1">
+        <v>41535</v>
+      </c>
+      <c r="H69" t="s">
+        <v>166</v>
+      </c>
+      <c r="J69" t="s">
+        <v>167</v>
+      </c>
+      <c r="K69" t="s">
+        <v>164</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
         <v>42022</v>
       </c>
-      <c r="C68">
+      <c r="C70">
         <v>-2</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H70" t="s">
         <v>174</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I70" t="s">
         <v>172</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J70" t="s">
         <v>171</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K70" t="s">
         <v>173</v>
       </c>
-      <c r="M68">
+      <c r="M70">
         <v>2</v>
       </c>
     </row>
@@ -3229,27 +3297,27 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J33" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="J34" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="J35" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="J37" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="J65" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="J29" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="J27" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="J23" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="J22" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="J21" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="J19" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="J42" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="J43" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="J44" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="J13" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
-    <hyperlink ref="J45" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
-    <hyperlink ref="J8" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
-    <hyperlink ref="J7" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
-    <hyperlink ref="J5" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
-    <hyperlink ref="J4" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
-    <hyperlink ref="J2" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
+    <hyperlink ref="J35" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="J36" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="J37" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="J39" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="J67" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="J31" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="J29" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="J25" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="J24" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="J23" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="J21" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="J44" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="J45" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="J46" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="J15" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="J47" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="J10" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
+    <hyperlink ref="J9" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
+    <hyperlink ref="J7" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
+    <hyperlink ref="J6" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
+    <hyperlink ref="J4" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId22"/>
@@ -3260,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
     <sheet name="华尔街见闻" sheetId="2" r:id="rId2"/>
     <sheet name="前瞻和预估" sheetId="3" r:id="rId3"/>
+    <sheet name="国外股票市场" sheetId="4" r:id="rId4"/>
+    <sheet name="总体市场舆论氛围" sheetId="5" r:id="rId5"/>
+    <sheet name="重大财经政策" sheetId="6" r:id="rId6"/>
+    <sheet name="股市相关税收调整" sheetId="7" r:id="rId7"/>
+    <sheet name="美联储会议时间" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="283">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -863,6 +868,328 @@
     <t>券商再融资，说明中长线还会上涨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>中国核电计入上证指数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>计入指数当天估计会打开涨停板，成交量放很大，需要有人去接筹码，稳住，避免跌停难看</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场要小心了，央妈们开始变脸了</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩根士丹利：外资从未如此看空中国股市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓散户，让散户抛出筹码</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>日经225指数开盘上涨0.81%，报20153.37点。</t>
+  </si>
+  <si>
+    <t>韩国首尔综指开盘上涨0.67%，报2055.65点。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/6/19 08:01
+</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/6/19 08:02
+</t>
+  </si>
+  <si>
+    <t>美国股市上涨，标普涨0.97%，道琼斯涨0.99%，纳斯达克涨1.33%且收盘创历史记录。</t>
+  </si>
+  <si>
+    <t>欧股上涨，德国DAX指数涨1.11%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/6/19 08:03
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/6/19 08:04
+</t>
+  </si>
+  <si>
+    <t>几乎所有舆论都是偏空的</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公布时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策内容</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自2015年4月20日起下调各类存款类金融机构人民币(6.2095, 0.0017, 0.03%)存款准备金率1个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率调整</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备金率调整</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一年期存款基准利率上调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="ˎ̥"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个百分点；一年期贷款基准利率上调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="ˎ̥"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个百分点</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融机构一年期贷款基准利率下调 0.25个百分点至5.1%；一年期存款基准利率下调0.25个百分点至2.25%</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自2015年3月1日起，金融机构一年期贷款基准利率下调0.25个百分点至5.35%，一年期存款基准利率下调0.25个百分点至2.5%，存款利率浮动区间的上限由存款基准利率的1.2倍调整为1.3倍</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行自2015年2月5日起下调金融机构人民币存款准备金率0.5个百分点。同时，对部分农商行额外再降0.5个百分点，对中国农业发展银行额外降低存款准备金率4个百分点。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自2014年11月22日起下调金融机构人民币贷款和存款基准利率。金融机构一年期贷款基准利率下调0.4个百分点至5.6%；一年期存款基准利率下调0.25个百分点至2.75%，同时结合推进利率市场化改革，将金融机构存款利率浮动区间的上限由存款基准利率的1.1倍调整为1.2倍</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存贷款基准利率下调0.31个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存贷款基准利率下调0.25个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存贷款基准利率上调0.25个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存贷款基准利率下调0.27个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存贷款基准利率下调1.08个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期贷款基准利率下调0.27个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存款基准利率上0.27个百分点；</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存款基准利率上调0.27个百分点；</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上调金融机构人民币存贷款基准利率0.27个百分点</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上调金融机构人民币存贷款基准利率0.27%</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年期存、贷款基准利率均上调0.27%</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要品种调整幅度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>从3‰调整为1‰</t>
+  </si>
+  <si>
+    <t>从1‰调整为3‰</t>
+  </si>
+  <si>
+    <t>从2‰调整为1‰</t>
+  </si>
+  <si>
+    <t>从4‰调整为2‰</t>
+  </si>
+  <si>
+    <t>B股交易印花税降为3‰</t>
+  </si>
+  <si>
+    <t>从5‰下调至4‰</t>
+  </si>
+  <si>
+    <t>从3‰上调至5‰</t>
+  </si>
+  <si>
+    <t>按3‰税率缴纳印花税</t>
+  </si>
+  <si>
+    <t>深市调至3‰，沪市开始双边征收3‰</t>
+  </si>
+  <si>
+    <t>1990年 11月23日</t>
+  </si>
+  <si>
+    <t>深市对买方开征6‰印花税</t>
+  </si>
+  <si>
+    <t>深市对卖方开征6‰印花税</t>
+  </si>
+  <si>
+    <t>调整幅度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花税</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>红利税</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策实施前，上市公司股息红利个人所得税的税负为10%。该政策实施后，股息红利所得按持股时间长短确定实际税负。持股超过1年的，税负为5%，税负比政策实施前降低一半；持股1个月至1年的，税负为10%，与政策实施前维持不变；持股1个月以内的，税负为20%，则恢复至法定税负水平</t>
+  </si>
+  <si>
+    <t>即自2005年6月13日起，现金红利暂减为按所得的50%计征10%个税</t>
+  </si>
+  <si>
+    <t>发布消息时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施者</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国央行</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>美联储FOMC举行为期两天的议息会议</t>
+  </si>
+  <si>
+    <t>3月17日至3月18日－美联储FOMC举行为期两天的议息会议</t>
+  </si>
+  <si>
+    <t>4月28日至4月29日－美联储FOMC举行为期两天的议息会议。</t>
+  </si>
+  <si>
+    <t>6月16日至6月17日－美联储FOMC举行为期两天的议息会议。</t>
+  </si>
+  <si>
+    <t>7月28日至7月29日－美联储FOMC举行为期两天的议息会议。</t>
+  </si>
+  <si>
+    <t>9月16日至9月17日－美联储FOMC举行为期两天的议息会议</t>
+  </si>
+  <si>
+    <t>10月27日至10月28日－美联储FOMC举行为期两天的议息会议</t>
+  </si>
+  <si>
+    <t>12月15日至12月16日－美联储FOMC举行为期两天的议息会议。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 稳增长政策不停歇 调整夯实慢牛走势</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>本报评论</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>中长线还是可以看好一段时间的</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证报头条评论：市场无须过度恐慌</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳住人气</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -873,7 +1200,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,8 +1415,43 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="ˎ̥"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,8 +1631,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1385,6 +1753,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCAC8CB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCAC8CB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1514,7 +1949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1549,6 +1984,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1886,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1949,19 +2408,19 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>42172</v>
+        <v>42178</v>
       </c>
       <c r="B2" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>280</v>
+      </c>
+      <c r="I2" t="s">
+        <v>279</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1971,14 +2430,11 @@
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1986,19 +2442,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>42171</v>
+        <v>42172</v>
       </c>
       <c r="B4" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-0.01</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -2006,22 +2462,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>42170</v>
+        <v>42171</v>
       </c>
       <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>-0.01</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-0.01</v>
       </c>
       <c r="H5" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -2029,7 +2482,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>42167</v>
+        <v>42170</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -2038,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
-      </c>
-      <c r="I6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="K6" t="s">
+        <v>193</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -2052,7 +2505,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>42166</v>
+        <v>42167</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -2061,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="I7" t="s">
+        <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -2081,13 +2534,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="K8" t="s">
+        <v>187</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -2095,19 +2551,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>42165</v>
+        <v>42166</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2117,34 +2576,34 @@
       <c r="C10">
         <v>-0.1</v>
       </c>
-      <c r="E10" s="1">
-        <v>42164</v>
-      </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
+        <v>42165</v>
+      </c>
+      <c r="C11">
+        <v>-0.1</v>
+      </c>
+      <c r="E11" s="1">
         <v>42164</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>178</v>
+      </c>
+      <c r="K11" t="s">
+        <v>173</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -2158,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -2169,16 +2628,16 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2186,16 +2645,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>42160</v>
+        <v>42163</v>
       </c>
       <c r="C14">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J14" t="s">
-        <v>148</v>
+        <v>153</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2203,16 +2662,16 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>42159</v>
+        <v>42160</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2226,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2237,16 +2696,16 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2254,16 +2713,16 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2274,13 +2733,13 @@
         <v>42157</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2294,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2311,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2322,19 +2781,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C22">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2345,16 +2801,16 @@
         <v>42156</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2362,19 +2818,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2388,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2402,16 +2858,19 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="C26">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="I26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2422,16 +2881,13 @@
         <v>42152</v>
       </c>
       <c r="C27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2439,19 +2895,19 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="C28">
         <v>-0.25</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
         <v>87</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2465,19 +2921,13 @@
         <v>-0.25</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2490,11 +2940,20 @@
       <c r="C30">
         <v>-0.25</v>
       </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2502,16 +2961,16 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2525,10 +2984,10 @@
         <v>0.5</v>
       </c>
       <c r="J32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2539,16 +2998,13 @@
         <v>42150</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="J33" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
-      </c>
-      <c r="L33" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2556,19 +3012,19 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J34" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="K34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" t="s">
+        <v>67</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2579,7 +3035,7 @@
         <v>42149</v>
       </c>
       <c r="C35">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -2588,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="J35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2599,19 +3055,16 @@
         <v>42149</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2619,19 +3072,25 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" t="s">
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2639,36 +3098,33 @@
         <v>42146</v>
       </c>
       <c r="C38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
+        <v>0.1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2676,45 +3132,42 @@
         <v>42145</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>98</v>
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
       </c>
       <c r="M41">
         <v>3</v>
@@ -2722,42 +3175,42 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>42143</v>
+        <v>42144</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K42" t="s">
         <v>98</v>
       </c>
-      <c r="L42" t="s">
-        <v>101</v>
-      </c>
       <c r="M42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>42142</v>
+        <v>42143</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
-      </c>
-      <c r="J43" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="K43" t="s">
         <v>98</v>
@@ -2766,44 +3219,47 @@
         <v>101</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>42139</v>
+        <v>42142</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K44" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="L44" t="s">
+        <v>101</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>42138</v>
+        <v>42139</v>
       </c>
       <c r="C45">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2811,16 +3267,19 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>42137</v>
+        <v>42138</v>
+      </c>
+      <c r="C46">
+        <v>-0.05</v>
       </c>
       <c r="H46" t="s">
-        <v>114</v>
-      </c>
-      <c r="I46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
+        <v>110</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2828,16 +3287,16 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>42129</v>
-      </c>
-      <c r="C47">
-        <v>-0.25</v>
+        <v>42137</v>
       </c>
       <c r="H47" t="s">
-        <v>163</v>
+        <v>114</v>
+      </c>
+      <c r="I47" t="s">
+        <v>113</v>
       </c>
       <c r="J47" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2848,22 +3307,13 @@
         <v>42129</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>42124</v>
-      </c>
-      <c r="F48" s="1">
-        <v>42130</v>
+        <v>-0.25</v>
       </c>
       <c r="H48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J48" t="s">
-        <v>165</v>
-      </c>
-      <c r="K48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2871,33 +3321,45 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>42012</v>
+        <v>42129</v>
       </c>
       <c r="C49">
         <v>0.1</v>
       </c>
+      <c r="E49" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F49" s="1">
+        <v>42130</v>
+      </c>
       <c r="H49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J49" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="K49" t="s">
+        <v>164</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="C50">
-        <v>-0.5</v>
-      </c>
-      <c r="I50" t="s">
-        <v>23</v>
+        <v>0.1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>170</v>
       </c>
       <c r="J50" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2905,10 +3367,13 @@
         <v>42011</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>-0.5</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2916,10 +3381,10 @@
         <v>42011</v>
       </c>
       <c r="C52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2930,50 +3395,41 @@
         <v>0.5</v>
       </c>
       <c r="J53" t="s">
-        <v>63</v>
-      </c>
-      <c r="L53" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>42010</v>
+        <v>42011</v>
       </c>
       <c r="C54">
-        <v>-0.5</v>
-      </c>
-      <c r="D54">
-        <v>42009</v>
+        <v>0.5</v>
       </c>
       <c r="J54" t="s">
-        <v>59</v>
-      </c>
-      <c r="K54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="L54" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>42009</v>
+        <v>42010</v>
       </c>
       <c r="C55">
         <v>-0.5</v>
       </c>
-      <c r="E55" t="s">
-        <v>9</v>
+      <c r="D55">
+        <v>42009</v>
       </c>
       <c r="J55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K55" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2981,36 +3437,36 @@
         <v>42009</v>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>23</v>
+        <v>-0.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
       </c>
       <c r="J56" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="K56" t="s">
+        <v>57</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="C57">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3018,16 +3474,16 @@
         <v>42004</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L58" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M58">
         <v>2</v>
@@ -3035,16 +3491,19 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>42003</v>
+        <v>42004</v>
       </c>
       <c r="C59">
-        <v>0.5</v>
-      </c>
-      <c r="I59" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="K59" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" t="s">
+        <v>55</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -3052,25 +3511,19 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="C60">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
-      </c>
-      <c r="K60" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M60">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3078,39 +3531,42 @@
         <v>42002</v>
       </c>
       <c r="C61">
-        <v>0.5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
+        <v>-0.5</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" t="s">
+        <v>45</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="C62">
         <v>0.5</v>
       </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3121,13 +3577,13 @@
         <v>0.5</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3135,25 +3591,22 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I64" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
-      </c>
-      <c r="L64" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3161,36 +3614,42 @@
         <v>41998</v>
       </c>
       <c r="C65">
-        <v>0.5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K65" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="C66">
-        <v>-1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
       </c>
       <c r="I66" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J66" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="K66" t="s">
+        <v>32</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3201,65 +3660,56 @@
         <v>41991</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>41812</v>
+        <v>41991</v>
       </c>
       <c r="C68">
-        <v>0.1</v>
-      </c>
-      <c r="E68" s="8">
-        <v>41810</v>
-      </c>
-      <c r="F68" s="1">
-        <v>41813</v>
-      </c>
-      <c r="H68" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>28</v>
       </c>
       <c r="J68" t="s">
-        <v>168</v>
-      </c>
-      <c r="K68" t="s">
-        <v>164</v>
+        <v>26</v>
+      </c>
+      <c r="L68" t="s">
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>41534</v>
+        <v>41812</v>
       </c>
       <c r="C69">
         <v>0.1</v>
       </c>
-      <c r="E69" s="1">
-        <v>41533</v>
+      <c r="E69" s="8">
+        <v>41810</v>
       </c>
       <c r="F69" s="1">
-        <v>41535</v>
+        <v>41813</v>
       </c>
       <c r="H69" t="s">
         <v>166</v>
       </c>
       <c r="J69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K69" t="s">
         <v>164</v>
@@ -3270,24 +3720,50 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
+        <v>41534</v>
+      </c>
+      <c r="C70">
+        <v>0.1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>41533</v>
+      </c>
+      <c r="F70" s="1">
+        <v>41535</v>
+      </c>
+      <c r="H70" t="s">
+        <v>166</v>
+      </c>
+      <c r="J70" t="s">
+        <v>167</v>
+      </c>
+      <c r="K70" t="s">
+        <v>164</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
         <v>42022</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>-2</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>174</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I71" t="s">
         <v>172</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J71" t="s">
         <v>171</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K71" t="s">
         <v>173</v>
       </c>
-      <c r="M70">
+      <c r="M71">
         <v>2</v>
       </c>
     </row>
@@ -3297,27 +3773,27 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J35" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="J36" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="J37" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="J39" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="J67" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="J31" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="J29" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="J25" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="J24" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="J23" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="J21" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="J44" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="J45" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="J46" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="J15" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
-    <hyperlink ref="J47" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
-    <hyperlink ref="J10" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
-    <hyperlink ref="J9" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
-    <hyperlink ref="J7" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
-    <hyperlink ref="J6" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
-    <hyperlink ref="J4" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
+    <hyperlink ref="J36" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="J37" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="J38" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="J40" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="J68" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="J32" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="J30" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="J26" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="J25" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="J24" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="J22" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="J45" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="J46" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="J47" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="J16" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="J48" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="J11" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
+    <hyperlink ref="J10" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
+    <hyperlink ref="J8" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
+    <hyperlink ref="J7" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
+    <hyperlink ref="J5" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId22"/>
@@ -3326,10 +3802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3514,6 +3990,51 @@
         <v>202</v>
       </c>
     </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>42174</v>
+      </c>
+      <c r="B11">
+        <v>-0.01</v>
+      </c>
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4">
+        <v>42174</v>
+      </c>
+      <c r="B12">
+        <v>-0.01</v>
+      </c>
+      <c r="G12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>42178</v>
+      </c>
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I13" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3523,10 +4044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3619,6 +4140,1691 @@
         <v>150</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>42173</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="40.5">
+      <c r="A1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40.5">
+      <c r="A2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.5">
+      <c r="A3" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="40.5">
+      <c r="A4" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>42173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>42173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" thickBottom="1"/>
+  <cols>
+    <col min="1" max="2" width="17.125" style="14" customWidth="1"/>
+    <col min="3" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" thickBot="1">
+      <c r="A2" s="14">
+        <v>42134</v>
+      </c>
+      <c r="B2" s="14">
+        <v>42135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2">
+        <v>-0.25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" thickBot="1">
+      <c r="A3" s="14">
+        <v>42063</v>
+      </c>
+      <c r="B3" s="14">
+        <v>42064</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3">
+        <v>-0.25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" thickBot="1">
+      <c r="A4" s="14">
+        <v>42039</v>
+      </c>
+      <c r="B4" s="14">
+        <v>42040</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" thickBot="1">
+      <c r="A5" s="14">
+        <v>41964</v>
+      </c>
+      <c r="B5" s="14">
+        <v>41965</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5">
+        <v>-0.4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" thickBot="1">
+      <c r="A6" s="14">
+        <v>41748</v>
+      </c>
+      <c r="B6" s="14">
+        <v>41749</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" thickBot="1">
+      <c r="A7" s="14">
+        <v>41095</v>
+      </c>
+      <c r="B7" s="14">
+        <v>41095</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7">
+        <v>-0.31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" thickBot="1">
+      <c r="A8" s="14">
+        <v>41067</v>
+      </c>
+      <c r="B8" s="14">
+        <v>41067</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8">
+        <v>-0.25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" thickBot="1">
+      <c r="A9" s="14">
+        <v>40963</v>
+      </c>
+      <c r="B9" s="14">
+        <v>40963</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" thickBot="1">
+      <c r="A10" s="14">
+        <v>40882</v>
+      </c>
+      <c r="B10" s="14">
+        <v>40882</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" thickBot="1">
+      <c r="A11" s="14">
+        <v>40882</v>
+      </c>
+      <c r="B11" s="14">
+        <v>40882</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" thickBot="1">
+      <c r="A12" s="14">
+        <v>40730</v>
+      </c>
+      <c r="B12" s="14">
+        <v>40730</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" thickBot="1">
+      <c r="A13" s="14">
+        <v>40714</v>
+      </c>
+      <c r="B13" s="14">
+        <v>40714</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" thickBot="1">
+      <c r="A14" s="14">
+        <v>40681</v>
+      </c>
+      <c r="B14" s="14">
+        <v>40681</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" thickBot="1">
+      <c r="A15" s="14">
+        <v>40654</v>
+      </c>
+      <c r="B15" s="14">
+        <v>40654</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" thickBot="1">
+      <c r="A16" s="14">
+        <v>40638</v>
+      </c>
+      <c r="B16" s="14">
+        <v>40638</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" thickBot="1">
+      <c r="A17" s="14">
+        <v>40627</v>
+      </c>
+      <c r="B17" s="14">
+        <v>40627</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" thickBot="1">
+      <c r="A18" s="14">
+        <v>40598</v>
+      </c>
+      <c r="B18" s="14">
+        <v>40598</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A19" s="14">
+        <v>40598</v>
+      </c>
+      <c r="B19" s="14">
+        <v>40598</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" thickBot="1">
+      <c r="A20" s="14">
+        <v>40582</v>
+      </c>
+      <c r="B20" s="14">
+        <v>40582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" thickBot="1">
+      <c r="A21" s="14">
+        <v>40563</v>
+      </c>
+      <c r="B21" s="14">
+        <v>40563</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" thickBot="1">
+      <c r="A22" s="14">
+        <v>40537</v>
+      </c>
+      <c r="B22" s="14">
+        <v>40537</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22">
+        <v>0.25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" thickBot="1">
+      <c r="A23" s="14">
+        <v>40532</v>
+      </c>
+      <c r="B23" s="14">
+        <v>40532</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" thickBot="1">
+      <c r="A24" s="14">
+        <v>40511</v>
+      </c>
+      <c r="B24" s="14">
+        <v>40511</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" thickBot="1">
+      <c r="A25" s="14">
+        <v>40498</v>
+      </c>
+      <c r="B25" s="14">
+        <v>40498</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" thickBot="1">
+      <c r="A26" s="14">
+        <v>40470</v>
+      </c>
+      <c r="B26" s="14">
+        <v>40470</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" thickBot="1">
+      <c r="A27" s="14">
+        <v>40308</v>
+      </c>
+      <c r="B27" s="14">
+        <v>40308</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" thickBot="1">
+      <c r="A28" s="14">
+        <v>40234</v>
+      </c>
+      <c r="B28" s="14">
+        <v>40234</v>
+      </c>
+      <c r="C28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" thickBot="1">
+      <c r="A29" s="14">
+        <v>40196</v>
+      </c>
+      <c r="B29" s="14">
+        <v>40196</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" thickBot="1">
+      <c r="A30" s="14">
+        <v>39807</v>
+      </c>
+      <c r="B30" s="14">
+        <v>39807</v>
+      </c>
+      <c r="C30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30">
+        <v>-0.5</v>
+      </c>
+      <c r="F30">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" thickBot="1">
+      <c r="A31" s="14">
+        <v>39804</v>
+      </c>
+      <c r="B31" s="14">
+        <v>39804</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31">
+        <v>-0.27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" thickBot="1">
+      <c r="A32" s="14">
+        <v>39787</v>
+      </c>
+      <c r="B32" s="14">
+        <v>39787</v>
+      </c>
+      <c r="C32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" thickBot="1">
+      <c r="A33" s="14">
+        <v>39778</v>
+      </c>
+      <c r="B33" s="14">
+        <v>39778</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33">
+        <v>-1.08</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" thickBot="1">
+      <c r="A34" s="14">
+        <v>39751</v>
+      </c>
+      <c r="B34" s="14">
+        <v>39751</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34">
+        <v>-0.27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" thickBot="1">
+      <c r="A35" s="14">
+        <v>39736</v>
+      </c>
+      <c r="B35" s="14">
+        <v>39736</v>
+      </c>
+      <c r="C35" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35">
+        <v>-0.5</v>
+      </c>
+      <c r="F35">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" thickBot="1">
+      <c r="A36" s="14">
+        <v>39730</v>
+      </c>
+      <c r="B36" s="14">
+        <v>39730</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36">
+        <v>-0.27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" thickBot="1">
+      <c r="A37" s="14">
+        <v>39716</v>
+      </c>
+      <c r="B37" s="14">
+        <v>39716</v>
+      </c>
+      <c r="C37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" thickBot="1">
+      <c r="A38" s="14">
+        <v>39707</v>
+      </c>
+      <c r="B38" s="14">
+        <v>39707</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38">
+        <v>-0.27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" thickBot="1">
+      <c r="A39" s="14">
+        <v>39606</v>
+      </c>
+      <c r="B39" s="14">
+        <v>39606</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" thickBot="1">
+      <c r="A40" s="14">
+        <v>39588</v>
+      </c>
+      <c r="B40" s="14">
+        <v>39588</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" thickBot="1">
+      <c r="A41" s="14">
+        <v>39563</v>
+      </c>
+      <c r="B41" s="14">
+        <v>39563</v>
+      </c>
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" thickBot="1">
+      <c r="A42" s="14">
+        <v>39525</v>
+      </c>
+      <c r="B42" s="14">
+        <v>39525</v>
+      </c>
+      <c r="C42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" thickBot="1">
+      <c r="A43" s="14">
+        <v>39472</v>
+      </c>
+      <c r="B43" s="14">
+        <v>39472</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" thickBot="1">
+      <c r="A44" s="14">
+        <v>39441</v>
+      </c>
+      <c r="B44" s="14">
+        <v>39441</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" thickBot="1">
+      <c r="A45" s="14">
+        <v>39436</v>
+      </c>
+      <c r="B45" s="14">
+        <v>39436</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45">
+        <v>0.27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" thickBot="1">
+      <c r="A46" s="14">
+        <v>39412</v>
+      </c>
+      <c r="B46" s="14">
+        <v>39412</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" thickBot="1">
+      <c r="A47" s="14">
+        <v>39380</v>
+      </c>
+      <c r="B47" s="14">
+        <v>39380</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" thickBot="1">
+      <c r="A48" s="14">
+        <v>39350</v>
+      </c>
+      <c r="B48" s="14">
+        <v>39350</v>
+      </c>
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" thickBot="1">
+      <c r="A49" s="14">
+        <v>39340</v>
+      </c>
+      <c r="B49" s="14">
+        <v>39340</v>
+      </c>
+      <c r="C49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49">
+        <v>0.27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" thickBot="1">
+      <c r="A50" s="14">
+        <v>39316</v>
+      </c>
+      <c r="B50" s="14">
+        <v>39316</v>
+      </c>
+      <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50">
+        <v>0.27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" thickBot="1">
+      <c r="A51" s="14">
+        <v>39309</v>
+      </c>
+      <c r="B51" s="14">
+        <v>39309</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" thickBot="1">
+      <c r="A52" s="14">
+        <v>39283</v>
+      </c>
+      <c r="B52" s="14">
+        <v>39283</v>
+      </c>
+      <c r="C52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52">
+        <v>0.27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" thickBot="1">
+      <c r="A53" s="14">
+        <v>39238</v>
+      </c>
+      <c r="B53" s="14">
+        <v>39238</v>
+      </c>
+      <c r="C53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" thickBot="1">
+      <c r="A54" s="14">
+        <v>39221</v>
+      </c>
+      <c r="B54" s="14">
+        <v>39221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54">
+        <v>0.27</v>
+      </c>
+      <c r="F54" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" thickBot="1">
+      <c r="A55" s="14">
+        <v>39217</v>
+      </c>
+      <c r="B55" s="14">
+        <v>39217</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" thickBot="1">
+      <c r="A56" s="14">
+        <v>39188</v>
+      </c>
+      <c r="B56" s="14">
+        <v>39188</v>
+      </c>
+      <c r="C56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" thickBot="1">
+      <c r="A57" s="14">
+        <v>39159</v>
+      </c>
+      <c r="B57" s="14">
+        <v>39159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57">
+        <v>0.27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" thickBot="1">
+      <c r="A58" s="14">
+        <v>39138</v>
+      </c>
+      <c r="B58" s="14">
+        <v>39138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" thickBot="1">
+      <c r="A59" s="14">
+        <v>39097</v>
+      </c>
+      <c r="B59" s="14">
+        <v>39097</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" thickBot="1">
+      <c r="A60" s="14">
+        <v>39036</v>
+      </c>
+      <c r="B60" s="14">
+        <v>39036</v>
+      </c>
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" thickBot="1">
+      <c r="A61" s="14">
+        <v>38948</v>
+      </c>
+      <c r="B61" s="14">
+        <v>38948</v>
+      </c>
+      <c r="C61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61">
+        <v>0.27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" thickBot="1">
+      <c r="A62" s="14">
+        <v>38944</v>
+      </c>
+      <c r="B62" s="14">
+        <v>38944</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" thickBot="1">
+      <c r="A63" s="14">
+        <v>38903</v>
+      </c>
+      <c r="B63" s="14">
+        <v>38903</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63">
+        <v>0.5</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E63">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B2" s="18">
+        <v>39562</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B3" s="18">
+        <v>39232</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B4" s="18">
+        <v>38375</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B5" s="18">
+        <v>37211</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B6" s="18">
+        <v>36312</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B7" s="18">
+        <v>35958</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B8" s="18">
+        <v>35562</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" thickBot="1">
+      <c r="B9" s="18">
+        <v>33767</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45.75" thickBot="1">
+      <c r="B10" s="18">
+        <v>33512</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34.5" thickBot="1">
+      <c r="B11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34.5" thickBot="1">
+      <c r="B12" s="18">
+        <v>33052</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" thickBot="1">
+      <c r="B13" s="18">
+        <v>38516</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="18">
+        <v>41229</v>
+      </c>
+      <c r="B14" s="18">
+        <v>41275</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>42031</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42032</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>42080</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42081</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>42122</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42123</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>42171</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42172</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>42213</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42214</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>42263</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42264</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42305</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42354</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="重大财经政策" sheetId="6" r:id="rId6"/>
     <sheet name="股市相关税收调整" sheetId="7" r:id="rId7"/>
     <sheet name="美联储会议时间" sheetId="8" r:id="rId8"/>
+    <sheet name="人大常委会会议" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="303">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1190,6 +1191,143 @@
     <t>稳住人气</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>外围资金借道沪股通大举抄底</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>股市大跌后，外资通过沪股通进入</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF05529A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国人民银行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 4日宣布，自5日起下调金融机构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF05529A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人民币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存款准备金率 0.5个百分点</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>证监会核发28家企业</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF05529A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPO批文</t>
+    </r>
+  </si>
+  <si>
+    <t>证监会</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>李克强</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定时间推出的核准消息，总家数是增加了，但没有超级大盘股</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前虽然还只是个草案，但对市场的影响力还是很大的哦，揽存相对放贷能力差的银行利好</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议类别</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议议程</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开会时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开会结束时间</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>委员长会议</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二届全国人大常委会第十五次会议6月24日至7月1日在北京举行</t>
+  </si>
+  <si>
+    <t>会议名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二届全国人大常委会第四十八次委员长会议</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二届全国人大常委会第十五次会议</t>
+  </si>
+  <si>
+    <t>常委会会议</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>存贷比限制拟取消 可释放万亿元流动性,(中华人民共和国商业银行法修正案(草案))</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1200,7 +1338,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,6 +1587,22 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF05529A"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF393939"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1949,7 +2103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2008,6 +2162,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2345,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2408,33 +2568,42 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>42178</v>
+        <v>42179</v>
       </c>
       <c r="B2" s="10">
         <v>0.01</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>286</v>
+      </c>
+      <c r="K2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>42172</v>
+        <v>42179</v>
       </c>
       <c r="B3" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>302</v>
+      </c>
+      <c r="K3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -2442,19 +2611,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>42172</v>
+        <v>42178</v>
       </c>
       <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>280</v>
+      </c>
+      <c r="I4" t="s">
+        <v>279</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -2462,19 +2631,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>42171</v>
+        <v>42172</v>
       </c>
       <c r="B5" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -2482,7 +2648,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>42170</v>
+        <v>42172</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -2491,13 +2657,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -2505,22 +2668,19 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>42167</v>
+        <v>42171</v>
       </c>
       <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>-0.01</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-0.01</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -2528,7 +2688,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>42166</v>
+        <v>42170</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
@@ -2537,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -2551,19 +2711,22 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>42166</v>
+        <v>42167</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="I9" t="s">
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -2571,39 +2734,42 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>42165</v>
+        <v>42166</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="K10" t="s">
+        <v>187</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>42165</v>
+        <v>42166</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>42164</v>
+        <v>-0.01</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -2611,33 +2777,39 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>42164</v>
+        <v>42165</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
+        <v>42165</v>
+      </c>
+      <c r="C13">
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="1">
         <v>42164</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>178</v>
+      </c>
+      <c r="K13" t="s">
+        <v>173</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2645,16 +2817,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>42163</v>
+        <v>42164</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2662,16 +2834,16 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>42160</v>
+        <v>42164</v>
       </c>
       <c r="C15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2679,16 +2851,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>42159</v>
+        <v>42163</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2696,16 +2868,16 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>42159</v>
+        <v>42160</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2713,16 +2885,16 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2730,16 +2902,16 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2747,16 +2919,16 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2767,13 +2939,13 @@
         <v>42157</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
+      </c>
+      <c r="J21" t="s">
+        <v>116</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2787,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2798,19 +2970,16 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2818,19 +2987,16 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2838,19 +3004,19 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2858,7 +3024,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>42153</v>
+        <v>42156</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2870,7 +3036,7 @@
         <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2878,16 +3044,19 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="C27">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>77</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2895,19 +3064,19 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>42152</v>
+        <v>42153</v>
       </c>
       <c r="C28">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="J28" t="s">
+        <v>78</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2915,19 +3084,16 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="C29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2935,25 +3101,19 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="C30">
         <v>-0.25</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" t="s">
-        <v>79</v>
-      </c>
-      <c r="K30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" t="s">
-        <v>33</v>
+        <v>87</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2966,11 +3126,14 @@
       <c r="C31">
         <v>-0.25</v>
       </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
       <c r="I31" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2978,16 +3141,25 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2995,16 +3167,16 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>-0.25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -3015,16 +3187,13 @@
         <v>42150</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -3032,19 +3201,16 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C35">
-        <v>0.1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3052,19 +3218,19 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C36">
-        <v>-0.2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J36" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="K36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" t="s">
+        <v>67</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3075,19 +3241,16 @@
         <v>42149</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3095,33 +3258,42 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-0.2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="C39">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -3129,19 +3301,16 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M40">
         <v>2</v>
@@ -3149,74 +3318,62 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="C41">
+        <v>0.1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41">
         <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41">
-        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" t="s">
-        <v>99</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>42143</v>
+        <v>42145</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
-      </c>
-      <c r="H43" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M43">
         <v>3</v>
@@ -3224,79 +3381,91 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>42142</v>
+        <v>42144</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
       </c>
       <c r="H44" t="s">
-        <v>105</v>
-      </c>
-      <c r="J44" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="K44" t="s">
         <v>98</v>
       </c>
-      <c r="L44" t="s">
-        <v>101</v>
-      </c>
       <c r="M44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>42139</v>
+        <v>42143</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
       </c>
       <c r="H45" t="s">
-        <v>108</v>
-      </c>
-      <c r="J45" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="L45" t="s">
+        <v>101</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>42138</v>
+        <v>42142</v>
       </c>
       <c r="C46">
-        <v>-0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K46" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="L46" t="s">
+        <v>101</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>42137</v>
+        <v>42139</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="K47" t="s">
+        <v>107</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -3304,16 +3473,19 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>42129</v>
+        <v>42138</v>
       </c>
       <c r="C48">
-        <v>-0.25</v>
+        <v>-0.05</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="J48" t="s">
-        <v>162</v>
+        <v>109</v>
+      </c>
+      <c r="K48" t="s">
+        <v>110</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -3321,25 +3493,16 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>42129</v>
-      </c>
-      <c r="C49">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>42124</v>
-      </c>
-      <c r="F49" s="1">
-        <v>42130</v>
+        <v>42137</v>
       </c>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
+        <v>113</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
-      </c>
-      <c r="K49" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3347,44 +3510,62 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>42012</v>
+        <v>42129</v>
       </c>
       <c r="C50">
-        <v>0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="H50" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J50" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>42011</v>
+        <v>42129</v>
       </c>
       <c r="C51">
-        <v>-0.5</v>
-      </c>
-      <c r="I51" t="s">
-        <v>23</v>
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F51" s="1">
+        <v>42130</v>
+      </c>
+      <c r="H51" t="s">
+        <v>169</v>
       </c>
       <c r="J51" t="s">
-        <v>60</v>
+        <v>165</v>
+      </c>
+      <c r="K51" t="s">
+        <v>164</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>170</v>
       </c>
       <c r="J52" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3392,10 +3573,13 @@
         <v>42011</v>
       </c>
       <c r="C53">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3403,87 +3587,72 @@
         <v>42011</v>
       </c>
       <c r="C54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>63</v>
-      </c>
-      <c r="L54" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>42010</v>
+        <v>42011</v>
       </c>
       <c r="C55">
-        <v>-0.5</v>
-      </c>
-      <c r="D55">
-        <v>42009</v>
+        <v>0.5</v>
       </c>
       <c r="J55" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="C56">
-        <v>-0.5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" t="s">
-        <v>57</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="L56" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
+        <v>42010</v>
+      </c>
+      <c r="C57">
+        <v>-0.5</v>
+      </c>
+      <c r="D57">
         <v>42009</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>23</v>
-      </c>
       <c r="J57" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K57" t="s">
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
+        <v>-0.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M58">
         <v>2</v>
@@ -3491,36 +3660,36 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>42004</v>
+        <v>42009</v>
       </c>
       <c r="C59">
+        <v>0.1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" t="s">
+        <v>58</v>
+      </c>
+      <c r="M59">
         <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" t="s">
-        <v>54</v>
-      </c>
-      <c r="L59" t="s">
-        <v>55</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>42003</v>
+        <v>42004</v>
       </c>
       <c r="C60">
         <v>0.5</v>
       </c>
-      <c r="I60" t="s">
-        <v>38</v>
-      </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="K60" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" t="s">
+        <v>27</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -3528,128 +3697,119 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="C61">
-        <v>-0.5</v>
-      </c>
-      <c r="I61" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L61" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="C62">
         <v>0.5</v>
       </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="L63" t="s">
+        <v>45</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>41999</v>
+        <v>42002</v>
       </c>
       <c r="C64">
         <v>0.5</v>
       </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I65" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J65" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>41998</v>
+        <v>41999</v>
       </c>
       <c r="C66">
         <v>0.5</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K66" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -3657,62 +3817,62 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="C67">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J67" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>41991</v>
+        <v>41998</v>
       </c>
       <c r="C68">
+        <v>0.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" t="s">
+        <v>32</v>
+      </c>
+      <c r="M68">
         <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>28</v>
-      </c>
-      <c r="J68" t="s">
-        <v>26</v>
-      </c>
-      <c r="L68" t="s">
-        <v>27</v>
-      </c>
-      <c r="M68">
-        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>41812</v>
+        <v>41991</v>
       </c>
       <c r="C69">
-        <v>0.1</v>
-      </c>
-      <c r="E69" s="8">
-        <v>41810</v>
-      </c>
-      <c r="F69" s="1">
-        <v>41813</v>
-      </c>
-      <c r="H69" t="s">
-        <v>166</v>
+        <v>-1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>168</v>
-      </c>
-      <c r="K69" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -3720,51 +3880,111 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>41534</v>
+        <v>41991</v>
       </c>
       <c r="C70">
-        <v>0.1</v>
-      </c>
-      <c r="E70" s="1">
-        <v>41533</v>
-      </c>
-      <c r="F70" s="1">
-        <v>41535</v>
-      </c>
-      <c r="H70" t="s">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>28</v>
       </c>
       <c r="J70" t="s">
-        <v>167</v>
-      </c>
-      <c r="K70" t="s">
-        <v>164</v>
+        <v>26</v>
+      </c>
+      <c r="L70" t="s">
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
+        <v>41812</v>
+      </c>
+      <c r="C71">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="8">
+        <v>41810</v>
+      </c>
+      <c r="F71" s="1">
+        <v>41813</v>
+      </c>
+      <c r="H71" t="s">
+        <v>166</v>
+      </c>
+      <c r="J71" t="s">
+        <v>168</v>
+      </c>
+      <c r="K71" t="s">
+        <v>164</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>41534</v>
+      </c>
+      <c r="C72">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>41533</v>
+      </c>
+      <c r="F72" s="1">
+        <v>41535</v>
+      </c>
+      <c r="H72" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72" t="s">
+        <v>167</v>
+      </c>
+      <c r="K72" t="s">
+        <v>164</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
         <v>42022</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>-2</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H73" t="s">
         <v>174</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I73" t="s">
         <v>172</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J73" t="s">
         <v>171</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K73" t="s">
         <v>173</v>
       </c>
-      <c r="M71">
+      <c r="M73">
         <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>42040</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>285</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3773,27 +3993,27 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J36" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="J37" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="J38" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="J40" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="J68" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="J32" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="J30" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="J26" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="J25" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="J24" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="J22" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="J45" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="J46" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="J47" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="J16" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
-    <hyperlink ref="J48" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
-    <hyperlink ref="J11" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
-    <hyperlink ref="J10" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
-    <hyperlink ref="J8" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
-    <hyperlink ref="J7" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
-    <hyperlink ref="J5" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
+    <hyperlink ref="J38" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="J39" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="J40" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="J42" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="J70" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="J34" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="J32" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="J28" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="J27" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="J26" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="J24" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="J47" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="J48" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="J49" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="J18" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="J50" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="J13" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
+    <hyperlink ref="J12" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
+    <hyperlink ref="J10" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
+    <hyperlink ref="J9" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
+    <hyperlink ref="J7" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId22"/>
@@ -3802,10 +4022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4033,6 +4253,20 @@
       </c>
       <c r="I13" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>42179</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="G14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4047,7 +4281,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4253,7 +4487,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D63"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" thickBottom="1"/>
@@ -5830,4 +6064,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25">
+      <c r="A2" s="20">
+        <v>42172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25">
+      <c r="A3" s="20">
+        <v>42179</v>
+      </c>
+      <c r="B3" s="20">
+        <v>42186</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="274">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1186,6 +1186,13 @@
   </si>
   <si>
     <t>该公司是为券商转融通服务的，利好融资融券</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊公投否决国际救助方案，引发避险情绪</t>
+  </si>
+  <si>
+    <t>对经济影响比较大</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1862,7 +1869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1915,6 +1922,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3866,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20573,6 +20583,20 @@
         <v>227</v>
       </c>
     </row>
+    <row r="22" spans="1:9" ht="14.25">
+      <c r="A22" s="18">
+        <v>42191.34375</v>
+      </c>
+      <c r="B22">
+        <v>-0.1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sse/综合数据分析（天）/四大证券报_头版.xlsx
+++ b/sse/综合数据分析（天）/四大证券报_头版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="金融界_四大证券报" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="282">
   <si>
     <t>消息刊登日期</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -1195,6 +1195,48 @@
     <t>对经济影响比较大</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>证监会：近期无</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF05529A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新股发行 审核工作不会停止</t>
+    </r>
+  </si>
+  <si>
+    <t>就市消息，市场暴跌情况下无效</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场失灵时政府的作用就要挺在前面</t>
+  </si>
+  <si>
+    <t>救市消息无效</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪股通昨净流出134亿元 创历史新高</t>
+  </si>
+  <si>
+    <t>外资不看好中国股市</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会：大股东及董监高6个月内不得减持</t>
+  </si>
+  <si>
+    <t>各种救市措施，但效果不好</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1206,7 +1248,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,6 +1484,14 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1869,7 +1919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1925,6 +1975,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2262,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2324,197 +2377,161 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1">
-        <v>42187</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
+      <c r="A2" s="19">
+        <v>42194</v>
+      </c>
+      <c r="H2" t="s">
+        <v>281</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1">
-        <v>42187</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
+      <c r="A3" s="19">
+        <v>42193</v>
+      </c>
+      <c r="H3" t="s">
+        <v>279</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="4">
-        <v>42185</v>
+      <c r="A4" s="19">
+        <v>42192</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" t="s">
-        <v>264</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="J4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="4">
-        <v>42185</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="19">
+        <v>42191</v>
+      </c>
+      <c r="H5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>42187</v>
+      </c>
+      <c r="B6" s="10">
         <v>0.01</v>
       </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" t="s">
-        <v>260</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="5" customFormat="1">
-      <c r="A6" s="4">
-        <v>42184</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="J6" t="s">
+        <v>266</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>42179</v>
+        <v>42187</v>
       </c>
       <c r="B7" s="10">
         <v>0.01</v>
       </c>
-      <c r="H7" t="s">
-        <v>234</v>
+      <c r="C7">
+        <v>0.1</v>
       </c>
       <c r="J7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>42179</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.05</v>
+      <c r="A8" s="4">
+        <v>42185</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" t="s">
-        <v>246</v>
+        <v>263</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="K8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>42178</v>
+      <c r="A9" s="4">
+        <v>42185</v>
       </c>
       <c r="B9" s="10">
         <v>0.01</v>
       </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
       <c r="H9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="J9" t="s">
-        <v>222</v>
+        <v>259</v>
+      </c>
+      <c r="K9" t="s">
+        <v>260</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>42172</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J10" t="s">
-        <v>206</v>
-      </c>
-      <c r="M10">
+    <row r="10" spans="1:13" s="5" customFormat="1">
+      <c r="A10" s="4">
+        <v>42184</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>42172</v>
+        <v>42179</v>
       </c>
       <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="J11" t="s">
-        <v>204</v>
+        <v>230</v>
+      </c>
+      <c r="K11" t="s">
+        <v>231</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -2522,19 +2539,22 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>42171</v>
+        <v>42179</v>
       </c>
       <c r="B12" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="C12" s="10">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H12" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="J12" t="s">
-        <v>200</v>
+        <v>246</v>
+      </c>
+      <c r="K12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" t="s">
+        <v>233</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -2542,22 +2562,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>42170</v>
+        <v>42178</v>
       </c>
       <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H13" t="s">
-        <v>194</v>
+        <v>224</v>
+      </c>
+      <c r="I13" t="s">
+        <v>223</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -2565,22 +2582,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>42167</v>
+        <v>42172</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="H14" t="s">
-        <v>190</v>
-      </c>
-      <c r="I14" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="J14" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -2588,7 +2599,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>42166</v>
+        <v>42172</v>
       </c>
       <c r="B15" s="10">
         <v>0</v>
@@ -2597,13 +2608,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
-      </c>
-      <c r="K15" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2611,19 +2619,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>42166</v>
+        <v>42171</v>
       </c>
       <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16">
         <v>-0.01</v>
       </c>
+      <c r="C16" s="10">
+        <v>-0.01</v>
+      </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J16" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2631,39 +2639,45 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>42165</v>
+        <v>42170</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>192</v>
+      </c>
+      <c r="K17" t="s">
+        <v>193</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>42165</v>
+        <v>42167</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>-0.1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>42164</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>179</v>
+        <v>190</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2671,16 +2685,22 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>42164</v>
+        <v>42166</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2688,16 +2708,19 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>42164</v>
+        <v>42166</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2705,33 +2728,39 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>42163</v>
+        <v>42165</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>152</v>
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>42160</v>
+        <v>42165</v>
       </c>
       <c r="C22">
         <v>-0.1</v>
       </c>
+      <c r="E22" s="1">
+        <v>42164</v>
+      </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>148</v>
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2739,16 +2768,16 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>42159</v>
+        <v>42164</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2756,16 +2785,16 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>42159</v>
+        <v>42164</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2773,16 +2802,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>42158</v>
+        <v>42163</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
+        <v>153</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2790,16 +2819,16 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>42157</v>
+        <v>42160</v>
       </c>
       <c r="C26">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2807,16 +2836,16 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2824,16 +2853,16 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>42157</v>
+        <v>42159</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>145</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2841,16 +2870,16 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>42157</v>
+        <v>42158</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="J29" t="s">
+        <v>118</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2858,19 +2887,16 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C30">
-        <v>-0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2878,19 +2904,16 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -2898,19 +2921,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" t="s">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2918,19 +2938,16 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>42153</v>
+        <v>42157</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>78</v>
+        <v>91</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2938,16 +2955,19 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>42152</v>
+        <v>42156</v>
       </c>
       <c r="C34">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>75</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -2955,19 +2975,19 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>42152</v>
+        <v>42156</v>
       </c>
       <c r="C35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s">
-        <v>87</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>76</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -2975,19 +2995,19 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>42151</v>
+        <v>42153</v>
       </c>
       <c r="C36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2995,25 +3015,19 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>42151</v>
+        <v>42153</v>
       </c>
       <c r="C37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="J37" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3021,16 +3035,16 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="C38">
-        <v>-0.25</v>
-      </c>
-      <c r="I38" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" t="s">
-        <v>80</v>
+        <v>-0.5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -3038,16 +3052,19 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>42150</v>
+        <v>42152</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="J39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" t="s">
-        <v>31</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -3055,16 +3072,19 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
-      </c>
-      <c r="J40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -3072,19 +3092,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>42150</v>
+        <v>42151</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>-0.25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" t="s">
+        <v>88</v>
       </c>
       <c r="J41" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -3092,19 +3118,16 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>42149</v>
+        <v>42151</v>
       </c>
       <c r="C42">
-        <v>0.1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
+        <v>-0.25</v>
       </c>
       <c r="I42" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -3112,19 +3135,16 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C43">
-        <v>-0.2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="J43" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>31</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -3132,22 +3152,16 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="J44" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -3155,33 +3169,39 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>42146</v>
+        <v>42150</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J45" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="K45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" t="s">
+        <v>67</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>42146</v>
+        <v>42149</v>
       </c>
       <c r="C46">
         <v>0.1</v>
       </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
       <c r="I46" t="s">
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -3189,117 +3209,96 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>42145</v>
+        <v>42149</v>
       </c>
       <c r="C47">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>42145</v>
+        <v>42149</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>42144</v>
+        <v>42146</v>
       </c>
       <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" t="s">
-        <v>99</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>42143</v>
+        <v>42146</v>
       </c>
       <c r="C50">
+        <v>0.1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50">
         <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K50" t="s">
-        <v>98</v>
-      </c>
-      <c r="L50" t="s">
-        <v>101</v>
-      </c>
-      <c r="M50">
-        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>42142</v>
+        <v>42145</v>
       </c>
       <c r="C51">
         <v>0.5</v>
       </c>
-      <c r="H51" t="s">
-        <v>105</v>
+      <c r="E51" t="s">
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>98</v>
-      </c>
-      <c r="L51" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -3307,99 +3306,117 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>42139</v>
+        <v>42145</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>42138</v>
+        <v>42144</v>
       </c>
       <c r="C53">
-        <v>-0.05</v>
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
-      </c>
-      <c r="J53" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="K53" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>42137</v>
+        <v>42143</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>103</v>
       </c>
       <c r="H54" t="s">
-        <v>114</v>
-      </c>
-      <c r="I54" t="s">
-        <v>113</v>
-      </c>
-      <c r="J54" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>98</v>
+      </c>
+      <c r="L54" t="s">
+        <v>101</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>42129</v>
+        <v>42142</v>
       </c>
       <c r="C55">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="J55" t="s">
-        <v>162</v>
+        <v>104</v>
+      </c>
+      <c r="K55" t="s">
+        <v>98</v>
+      </c>
+      <c r="L55" t="s">
+        <v>101</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>42129</v>
+        <v>42139</v>
       </c>
       <c r="C56">
-        <v>0.1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>42124</v>
-      </c>
-      <c r="F56" s="1">
-        <v>42130</v>
+        <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="K56" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -3407,180 +3424,186 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>42012</v>
+        <v>42138</v>
       </c>
       <c r="C57">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="H57" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="J57" t="s">
-        <v>64</v>
+        <v>109</v>
+      </c>
+      <c r="K57" t="s">
+        <v>110</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>42011</v>
-      </c>
-      <c r="C58">
-        <v>-0.5</v>
+        <v>42137</v>
+      </c>
+      <c r="H58" t="s">
+        <v>114</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="J58" t="s">
-        <v>60</v>
+        <v>112</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>42011</v>
+        <v>42129</v>
       </c>
       <c r="C59">
+        <v>-0.25</v>
+      </c>
+      <c r="H59" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" t="s">
+        <v>162</v>
+      </c>
+      <c r="M59">
         <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>42011</v>
+        <v>42129</v>
       </c>
       <c r="C60">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>42124</v>
+      </c>
+      <c r="F60" s="1">
+        <v>42130</v>
+      </c>
+      <c r="H60" t="s">
+        <v>169</v>
       </c>
       <c r="J60" t="s">
-        <v>62</v>
+        <v>165</v>
+      </c>
+      <c r="K60" t="s">
+        <v>164</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>42011</v>
+        <v>42012</v>
       </c>
       <c r="C61">
-        <v>0.5</v>
+        <v>0.1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>170</v>
       </c>
       <c r="J61" t="s">
-        <v>63</v>
-      </c>
-      <c r="L61" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>42010</v>
+        <v>42011</v>
       </c>
       <c r="C62">
         <v>-0.5</v>
       </c>
-      <c r="D62">
-        <v>42009</v>
+      <c r="I62" t="s">
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>59</v>
-      </c>
-      <c r="K62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M62">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="C63">
-        <v>-0.5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>56</v>
-      </c>
-      <c r="K63" t="s">
-        <v>57</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>42009</v>
+        <v>42011</v>
       </c>
       <c r="C64">
-        <v>0.1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>23</v>
+        <v>0.5</v>
       </c>
       <c r="J64" t="s">
-        <v>58</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>42004</v>
+        <v>42011</v>
       </c>
       <c r="C65">
         <v>0.5</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
-      </c>
-      <c r="K65" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L65" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>42004</v>
+        <v>42010</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>-0.5</v>
+      </c>
+      <c r="D66">
+        <v>42009</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K66" t="s">
-        <v>54</v>
-      </c>
-      <c r="L66" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>42003</v>
+        <v>42009</v>
       </c>
       <c r="C67">
-        <v>0.5</v>
-      </c>
-      <c r="I67" t="s">
-        <v>38</v>
+        <v>-0.5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="K67" t="s">
+        <v>57</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -3588,113 +3611,104 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>42002</v>
+        <v>42009</v>
       </c>
       <c r="C68">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
-      </c>
-      <c r="K68" t="s">
-        <v>32</v>
-      </c>
-      <c r="L68" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>42002</v>
+        <v>42004</v>
       </c>
       <c r="C69">
         <v>0.5</v>
       </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>48</v>
-      </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="K69" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" t="s">
+        <v>27</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>41999</v>
+        <v>42004</v>
       </c>
       <c r="C70">
-        <v>0.5</v>
-      </c>
-      <c r="I70" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="L70" t="s">
+        <v>55</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>41999</v>
+        <v>42003</v>
       </c>
       <c r="C71">
         <v>0.5</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
-      </c>
-      <c r="K71" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>41998</v>
+        <v>42002</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K72" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>41998</v>
+        <v>42002</v>
       </c>
       <c r="C73">
         <v>0.5</v>
@@ -3703,30 +3717,30 @@
         <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J73" t="s">
-        <v>37</v>
-      </c>
-      <c r="K73" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>41991</v>
+        <v>41999</v>
       </c>
       <c r="C74">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J74" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -3734,71 +3748,65 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>41991</v>
+        <v>41999</v>
       </c>
       <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="I75" t="s">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M75">
         <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>28</v>
-      </c>
-      <c r="J75" t="s">
-        <v>26</v>
-      </c>
-      <c r="L75" t="s">
-        <v>27</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>41812</v>
+        <v>41998</v>
       </c>
       <c r="C76">
-        <v>0.1</v>
-      </c>
-      <c r="E76" s="8">
-        <v>41810</v>
-      </c>
-      <c r="F76" s="1">
-        <v>41813</v>
-      </c>
-      <c r="H76" t="s">
-        <v>166</v>
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>36</v>
       </c>
       <c r="J76" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="K76" t="s">
-        <v>164</v>
+        <v>20</v>
+      </c>
+      <c r="L76" t="s">
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>41534</v>
+        <v>41998</v>
       </c>
       <c r="C77">
-        <v>0.1</v>
-      </c>
-      <c r="E77" s="1">
-        <v>41533</v>
-      </c>
-      <c r="F77" s="1">
-        <v>41535</v>
-      </c>
-      <c r="H77" t="s">
-        <v>166</v>
+        <v>0.5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" t="s">
+        <v>39</v>
       </c>
       <c r="J77" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="K77" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -3806,38 +3814,127 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>42022</v>
+        <v>41991</v>
       </c>
       <c r="C78">
-        <v>-2</v>
-      </c>
-      <c r="H78" t="s">
-        <v>174</v>
+        <v>-1</v>
       </c>
       <c r="I78" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="J78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K78" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1">
+        <v>41991</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
+        <v>26</v>
+      </c>
+      <c r="L79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>41812</v>
+      </c>
+      <c r="C80">
+        <v>0.1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>41810</v>
+      </c>
+      <c r="F80" s="1">
+        <v>41813</v>
+      </c>
+      <c r="H80" t="s">
+        <v>166</v>
+      </c>
+      <c r="J80" t="s">
+        <v>168</v>
+      </c>
+      <c r="K80" t="s">
+        <v>164</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>41534</v>
+      </c>
+      <c r="C81">
+        <v>0.1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>41533</v>
+      </c>
+      <c r="F81" s="1">
+        <v>41535</v>
+      </c>
+      <c r="H81" t="s">
+        <v>166</v>
+      </c>
+      <c r="J81" t="s">
+        <v>167</v>
+      </c>
+      <c r="K81" t="s">
+        <v>164</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>42022</v>
+      </c>
+      <c r="C82">
+        <v>-2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" t="s">
+        <v>172</v>
+      </c>
+      <c r="J82" t="s">
+        <v>171</v>
+      </c>
+      <c r="K82" t="s">
+        <v>173</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
         <v>42040</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <v>0.5</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J83" t="s">
         <v>229</v>
       </c>
-      <c r="M79">
+      <c r="M83">
         <v>3</v>
       </c>
     </row>
@@ -3847,27 +3944,27 @@
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J43" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
-    <hyperlink ref="J44" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
-    <hyperlink ref="J45" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
-    <hyperlink ref="J47" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
-    <hyperlink ref="J75" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
-    <hyperlink ref="J39" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
-    <hyperlink ref="J37" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
-    <hyperlink ref="J33" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
-    <hyperlink ref="J32" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
-    <hyperlink ref="J31" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
-    <hyperlink ref="J29" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
-    <hyperlink ref="J52" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
-    <hyperlink ref="J53" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
-    <hyperlink ref="J54" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
-    <hyperlink ref="J23" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
-    <hyperlink ref="J55" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
-    <hyperlink ref="J18" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
-    <hyperlink ref="J17" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
-    <hyperlink ref="J15" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
-    <hyperlink ref="J14" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
-    <hyperlink ref="J12" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
+    <hyperlink ref="J47" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/25051819261864.shtml"/>
+    <hyperlink ref="J48" r:id="rId2" display="http://futures1.jrj.com.cn/finance/"/>
+    <hyperlink ref="J49" r:id="rId3" display="http://stock.jrj.com.cn/2015/05/22055619255148.shtml"/>
+    <hyperlink ref="J51" r:id="rId4" display="http://stock.jrj.com.cn/2015/05/21014819248727.shtml"/>
+    <hyperlink ref="J79" r:id="rId5" display="http://stock.jrj.com.cn/2014/12/08050018488436.shtml"/>
+    <hyperlink ref="J43" r:id="rId6" display="http://stock.jrj.com.cn/2015/05/26032319266350.shtml"/>
+    <hyperlink ref="J41" r:id="rId7" display="http://stock.jrj.com.cn/2015/05/27025419271762.shtml"/>
+    <hyperlink ref="J37" r:id="rId8" display="http://stock.jrj.com.cn/2015/05/29012219281723.shtml"/>
+    <hyperlink ref="J36" r:id="rId9" display="http://stock.jrj.com.cn/2015/05/29055919282664.shtml"/>
+    <hyperlink ref="J35" r:id="rId10" display="http://stock.jrj.com.cn/2015/06/01050119289733.shtml"/>
+    <hyperlink ref="J33" r:id="rId11" display="http://stock.jrj.com.cn/2015/06/02063519295277.shtml"/>
+    <hyperlink ref="J56" r:id="rId12" display="http://stock.jrj.com.cn/2015/05/15025219225462.shtml"/>
+    <hyperlink ref="J57" r:id="rId13" display="http://stock.jrj.com.cn/ipo/2015/05/14051619220841.shtml"/>
+    <hyperlink ref="J58" r:id="rId14" display="http://stock.jrj.com.cn/2015/05/13022419214654.shtml"/>
+    <hyperlink ref="J27" r:id="rId15" display="http://stock.jrj.com.cn/2015/06/04055019308899.shtml"/>
+    <hyperlink ref="J59" r:id="rId16" display="http://stock.jrj.com.cn/2015/05/05023519180523.shtml"/>
+    <hyperlink ref="J22" r:id="rId17" display="http://stock.jrj.com.cn/ipo/2015/06/10060719336790.shtml"/>
+    <hyperlink ref="J21" r:id="rId18" display="http://stock.jrj.com.cn/hotstock/2015/06/10062619336911.shtml"/>
+    <hyperlink ref="J19" r:id="rId19" display="http://bank.jrj.com.cn/list/jgdt.shtml"/>
+    <hyperlink ref="J18" r:id="rId20" display="http://stock.jrj.com.cn/2015/06/12053819349364.shtml"/>
+    <hyperlink ref="J16" r:id="rId21" display="http://stock.jrj.com.cn/2015/06/16054919363386.shtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId22"/>
@@ -3878,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
